--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -44,22 +44,73 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سيتي بيبي رقم 4</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>190.00</t>
   </si>
   <si>
     <t>190.0000</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 9:17 AM</t>
+    <t>Wednesday, 13 August, 2025 9:20 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -717,42 +768,174 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>190</v>
-      </c>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>16</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>17</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>18</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>23</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>22</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>23</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>26</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>23</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>216</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>33</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>34</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>35</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -766,10 +949,30 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -110,7 +110,7 @@
     <t>190.0000</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 9:20 AM</t>
+    <t>Wednesday, 13 August, 2025 9:22 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -110,7 +110,7 @@
     <t>190.0000</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 9:22 AM</t>
+    <t>Wednesday, 13 August, 2025 9:31 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -110,7 +110,7 @@
     <t>190.0000</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 9:31 AM</t>
+    <t>Wednesday, 13 August, 2025 9:46 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
     <t>0:5</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
     <t>9.1200</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -74,12 +86,42 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>11.4500</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -89,9 +131,6 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -110,7 +149,7 @@
     <t>190.0000</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 9:46 AM</t>
+    <t>Wednesday, 13 August, 2025 9:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -823,18 +862,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -843,31 +882,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -876,20 +915,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -900,42 +939,174 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>216</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>33</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>34</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>23</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>30</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>37</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>38</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>30</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>37</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>41</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>34</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>37</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>44</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>282.07999999999998</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>46</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>47</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>48</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -969,10 +1140,30 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -149,7 +149,7 @@
     <t>190.0000</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 9:58 AM</t>
+    <t>Wednesday, 13 August, 2025 9:59 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -98,6 +98,33 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
   </si>
   <si>
@@ -113,18 +140,12 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -149,7 +170,7 @@
     <t>190.0000</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 9:59 AM</t>
+    <t>Wednesday, 13 August, 2025 10:01 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -922,7 +943,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -932,14 +953,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -961,15 +982,15 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -981,31 +1002,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1014,31 +1035,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1047,66 +1068,132 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>282.07999999999998</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>46</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>47</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>39</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>35</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>48</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>32</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>35</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>51</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>396.07999999999998</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>53</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>54</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>55</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1160,10 +1247,20 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>DANTRELAX 25MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -86,6 +98,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DIVIDO 75MG 30 DUAL RELEASE CAPS.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -107,9 +128,6 @@
     <t>87.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -125,18 +143,45 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
     <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>229.00</t>
   </si>
   <si>
     <t>11.4500</t>
   </si>
   <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>THIOTACID COMPOUND 600 MG 30 F.C.CAPLETS</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -170,7 +215,7 @@
     <t>190.0000</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:01 AM</t>
+    <t>Wednesday, 13 August, 2025 10:12 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -943,7 +988,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -960,7 +1005,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -969,28 +1014,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1002,14 +1047,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1019,14 +1064,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1035,24 +1080,24 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
@@ -1075,24 +1120,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1101,31 +1146,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1134,66 +1179,231 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>396.07999999999998</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
-        <v>53</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>54</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>12</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>55</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>57</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>22</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>27</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>59</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>45</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>41</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>60</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>62</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>45</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>41</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>63</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>65</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>22</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>41</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>66</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>664.19000000000005</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>68</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>69</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>70</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1257,10 +1467,35 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -215,7 +215,7 @@
     <t>190.0000</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:12 AM</t>
+    <t>Wednesday, 13 August, 2025 10:20 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>DANTRELAX 25MG 30 CAPS.</t>
   </si>
   <si>
@@ -215,7 +224,7 @@
     <t>190.0000</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:20 AM</t>
+    <t>Wednesday, 13 August, 2025 10:21 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -922,7 +931,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -932,11 +941,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -948,14 +957,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -965,11 +974,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -981,14 +990,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1021,7 +1030,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1031,11 +1040,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1047,14 +1056,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1071,7 +1080,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1087,24 +1096,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1113,31 +1122,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1146,14 +1155,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1170,7 +1179,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1186,7 +1195,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1203,7 +1212,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1219,7 +1228,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1236,7 +1245,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1252,7 +1261,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1262,11 +1271,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1278,31 +1287,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1318,13 +1327,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1335,7 +1344,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1351,13 +1360,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1368,42 +1377,75 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>664.19000000000005</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>68</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>25</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>44</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>69</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
         <v>70</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c t="s" r="Q23" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>687.95000000000005</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>71</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>72</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>73</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1492,10 +1534,15 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -137,6 +137,21 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>ITRAPEX 100MG 4 CAPS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -155,9 +170,6 @@
     <t>RX MASSAGE GEL 50 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>79.90</t>
   </si>
   <si>
@@ -224,7 +236,7 @@
     <t>190.0000</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:21 AM</t>
+    <t>Wednesday, 13 August, 2025 10:31 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1135,18 +1147,18 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>46</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1168,18 +1180,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1188,14 +1200,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1205,14 +1217,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1221,14 +1233,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1238,14 +1250,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1254,14 +1266,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1271,14 +1283,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1287,14 +1299,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1304,11 +1316,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1320,31 +1332,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1353,28 +1365,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>25</v>
@@ -1386,66 +1398,99 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>687.95000000000005</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>71</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>72</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>25</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>49</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>73</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>739.95000000000005</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>75</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>76</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>77</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1539,10 +1584,15 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -152,6 +152,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -236,7 +245,7 @@
     <t>190.0000</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:31 AM</t>
+    <t>Wednesday, 13 August, 2025 10:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1180,18 +1189,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1200,20 +1209,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1224,7 +1233,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1257,7 +1266,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1273,7 +1282,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1290,7 +1299,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1306,7 +1315,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1323,7 +1332,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1339,7 +1348,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1349,11 +1358,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1365,31 +1374,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1411,7 +1420,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1438,13 +1447,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1459,38 +1468,71 @@
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>739.95000000000005</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>75</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>25</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>52</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>76</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>77</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c t="s" r="Q25" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>796.95000000000005</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>78</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>79</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>80</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1589,10 +1631,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -245,7 +245,7 @@
     <t>190.0000</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:32 AM</t>
+    <t>Wednesday, 13 August, 2025 10:33 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -86,9 +101,6 @@
     <t>DANTRELAX 25MG 30 CAPS.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>147.00</t>
   </si>
   <si>
@@ -245,7 +257,19 @@
     <t>190.0000</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:33 AM</t>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 13 August, 2025 10:37 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -952,7 +976,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -962,14 +986,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -978,14 +1002,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -995,11 +1019,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1011,14 +1035,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1051,7 +1075,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1061,11 +1085,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1077,14 +1101,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1117,7 +1141,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1127,14 +1151,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1143,14 +1167,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1167,7 +1191,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1176,14 +1200,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1193,14 +1217,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1209,31 +1233,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1242,31 +1266,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1275,14 +1299,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1292,14 +1316,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1308,14 +1332,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1325,14 +1349,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1341,14 +1365,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1358,14 +1382,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1374,14 +1398,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1391,11 +1415,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1407,31 +1431,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1440,28 +1464,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -1473,66 +1497,132 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>796.95000000000005</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
-        <v>78</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>79</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>25</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>56</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>80</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>82</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>83</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>56</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>84</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>839.95000000000005</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>86</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>87</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>88</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1636,10 +1726,20 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -269,7 +269,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:37 AM</t>
+    <t>Wednesday, 13 August, 2025 10:45 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -230,6 +230,24 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>جل صبار برطمان</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>ريكسونه رجالى</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -269,7 +287,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:45 AM</t>
+    <t>Wednesday, 13 August, 2025 10:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1471,7 +1489,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1481,11 +1499,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -1497,14 +1515,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1514,11 +1532,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -1537,7 +1555,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1570,7 +1588,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1580,49 +1598,115 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>839.95000000000005</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>85</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>25</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>56</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>86</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c t="s" r="Q28" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>88</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>89</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>56</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>90</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>891.95000000000005</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>92</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>93</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>94</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1736,10 +1820,20 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -86,9 +101,6 @@
     <t>23.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -98,6 +110,18 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DANTRELAX 25MG 30 CAPS.</t>
   </si>
   <si>
@@ -167,9 +191,6 @@
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>57.0000</t>
   </si>
   <si>
@@ -287,7 +308,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:49 AM</t>
+    <t>Wednesday, 13 August, 2025 10:50 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -978,7 +999,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -987,14 +1008,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1004,14 +1025,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1027,7 +1048,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1037,11 +1058,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1053,14 +1074,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1070,14 +1091,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1086,14 +1107,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1103,11 +1124,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1119,14 +1140,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1136,14 +1157,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1152,14 +1173,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1169,14 +1190,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1185,14 +1206,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1202,14 +1223,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1218,14 +1239,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1235,14 +1256,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1258,7 +1279,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1268,14 +1289,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1297,18 +1318,18 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>58</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1324,7 +1345,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1334,14 +1355,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1350,31 +1371,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1383,14 +1404,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1400,14 +1421,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1416,14 +1437,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1433,14 +1454,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1449,14 +1470,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1466,14 +1487,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1482,31 +1503,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1515,31 +1536,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1548,31 +1569,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1581,31 +1602,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1614,31 +1635,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1647,20 +1668,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1671,42 +1692,108 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>92</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>16</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>63</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>93</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>891.95000000000005</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>92</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
-        <v>93</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
-        <v>94</v>
-      </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>95</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>96</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>63</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>97</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>956.95000000000005</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>99</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>100</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>101</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1830,10 +1917,20 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -122,15 +122,6 @@
     <t>33.0000</t>
   </si>
   <si>
-    <t>DANTRELAX 25MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>48.5100</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -143,15 +134,6 @@
     <t>11.8800</t>
   </si>
   <si>
-    <t>DIVIDO 75MG 30 DUAL RELEASE CAPS.</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -209,15 +191,6 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>RX MASSAGE GEL 50 GM</t>
-  </si>
-  <si>
-    <t>79.90</t>
-  </si>
-  <si>
-    <t>79.9000</t>
-  </si>
-  <si>
     <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
   </si>
   <si>
@@ -234,15 +207,6 @@
   </si>
   <si>
     <t>11.0000</t>
-  </si>
-  <si>
-    <t>THIOTACID COMPOUND 600 MG 30 F.C.CAPLETS</t>
-  </si>
-  <si>
-    <t>249.00</t>
-  </si>
-  <si>
-    <t>82.1700</t>
   </si>
   <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
@@ -1147,7 +1111,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1157,11 +1121,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1173,14 +1137,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1190,11 +1154,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1206,14 +1170,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1223,14 +1187,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1239,14 +1203,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1256,14 +1220,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1272,14 +1236,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1289,11 +1253,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1305,31 +1269,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1338,14 +1302,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1355,14 +1319,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1371,20 +1335,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1395,7 +1359,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1411,7 +1375,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1421,14 +1385,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1437,20 +1401,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1461,7 +1425,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1477,13 +1441,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1491,10 +1455,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1503,31 +1467,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1536,31 +1500,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1576,21 +1540,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1602,20 +1566,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1623,177 +1587,45 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="A28" s="7">
-        <v>22</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c t="s" r="C28" s="8">
-        <v>86</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c t="s" r="H28" s="9">
-        <v>55</v>
-      </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c t="s" r="L28" s="10">
-        <v>63</v>
-      </c>
-      <c r="M28" s="10"/>
-      <c t="s" r="N28" s="8">
+      <c r="P28" s="13">
+        <v>699.84000000000003</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
         <v>87</v>
       </c>
-      <c r="O28" s="8"/>
-      <c t="s" r="P28" s="11">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
         <v>88</v>
       </c>
-      <c t="s" r="Q28" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="A29" s="7">
-        <v>23</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c t="s" r="C29" s="8">
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
         <v>89</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c t="s" r="H29" s="9">
-        <v>55</v>
-      </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c t="s" r="L29" s="10">
-        <v>63</v>
-      </c>
-      <c r="M29" s="10"/>
-      <c t="s" r="N29" s="8">
-        <v>90</v>
-      </c>
-      <c r="O29" s="8"/>
-      <c t="s" r="P29" s="11">
-        <v>91</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="A30" s="7">
-        <v>24</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c t="s" r="C30" s="8">
-        <v>92</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c t="s" r="H30" s="9">
-        <v>16</v>
-      </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c t="s" r="L30" s="10">
-        <v>63</v>
-      </c>
-      <c r="M30" s="10"/>
-      <c t="s" r="N30" s="8">
-        <v>93</v>
-      </c>
-      <c r="O30" s="8"/>
-      <c t="s" r="P30" s="11">
-        <v>94</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="A31" s="7">
-        <v>25</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c t="s" r="C31" s="8">
-        <v>95</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c t="s" r="H31" s="9">
-        <v>96</v>
-      </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c t="s" r="L31" s="10">
-        <v>63</v>
-      </c>
-      <c r="M31" s="10"/>
-      <c t="s" r="N31" s="8">
-        <v>97</v>
-      </c>
-      <c r="O31" s="8"/>
-      <c t="s" r="P31" s="11">
-        <v>98</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>956.95000000000005</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>99</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>100</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
-        <v>101</v>
-      </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1907,30 +1739,10 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -272,7 +272,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:50 AM</t>
+    <t>Wednesday, 13 August, 2025 10:52 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -176,6 +176,18 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -272,7 +284,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:52 AM</t>
+    <t>Wednesday, 13 August, 2025 10:54 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1282,18 +1294,18 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1302,28 +1314,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1335,14 +1347,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1352,14 +1364,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1368,7 +1380,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1385,14 +1397,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1401,31 +1413,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1441,21 +1453,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1467,28 +1479,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1500,7 +1512,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1513,15 +1525,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1533,28 +1545,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1566,20 +1578,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1594,38 +1606,71 @@
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>699.84000000000003</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>87</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
         <v>88</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>61</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>89</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>707.84000000000003</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>91</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>92</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>93</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1739,10 +1784,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -227,6 +227,12 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
     <t>جل صبار برطمان</t>
   </si>
   <si>
@@ -284,7 +290,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:54 AM</t>
+    <t>Wednesday, 13 August, 2025 10:57 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1459,18 +1465,18 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1479,14 +1485,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1496,11 +1502,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1519,7 +1525,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1533,7 +1539,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1545,7 +1551,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1562,11 +1568,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1578,14 +1584,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1595,11 +1601,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1611,14 +1617,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1628,49 +1634,82 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>707.84000000000003</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>89</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>90</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>61</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>91</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>724.66999999999996</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
         <v>93</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>94</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>95</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1789,10 +1828,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -203,6 +203,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>SEKEM ملين</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
   </si>
   <si>
@@ -230,7 +239,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:1</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>جل صبار برطمان</t>
@@ -284,13 +293,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 13 August, 2025 10:57 AM</t>
+    <t>Wednesday, 13 August, 2025 10:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1360,13 +1363,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1377,7 +1380,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1393,7 +1396,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1410,7 +1413,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1436,14 +1439,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1452,14 +1455,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1469,11 +1472,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1485,31 +1488,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1518,14 +1521,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1539,7 +1542,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1551,14 +1554,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1568,11 +1571,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1624,7 +1627,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1657,7 +1660,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1667,49 +1670,82 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>724.66999999999996</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>92</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
         <v>93</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>61</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>65</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>761.5</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
         <v>94</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
         <v>95</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>96</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1833,10 +1869,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -254,6 +254,12 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>52:0</t>
+  </si>
+  <si>
     <t>ريكسونه رجالى</t>
   </si>
   <si>
@@ -287,13 +293,22 @@
     <t>190.0000</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:58 AM</t>
+    <t>Wednesday, 13 August, 2025 11:24 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1561,7 +1576,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1571,11 +1586,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1594,7 +1609,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1608,7 +1623,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1620,7 +1635,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1637,11 +1652,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1653,14 +1668,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1670,11 +1685,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1686,14 +1701,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1703,49 +1718,115 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>761.5</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>94</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>34</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>61</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>95</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>97</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>98</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>61</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>65</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>805.5</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>99</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>100</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>101</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1874,10 +1955,20 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -308,7 +308,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 11:24 AM</t>
+    <t>Wednesday, 13 August, 2025 11:26 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -188,6 +188,15 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -308,7 +317,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 11:26 AM</t>
+    <t>Wednesday, 13 August, 2025 11:47 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1351,15 +1360,15 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1371,20 +1380,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1395,7 +1404,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1411,13 +1420,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1428,7 +1437,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1444,7 +1453,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1461,7 +1470,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1487,14 +1496,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1503,14 +1512,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1520,14 +1529,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1536,31 +1545,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1569,28 +1578,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1602,28 +1611,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1635,28 +1644,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1681,7 +1690,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1708,13 +1717,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1741,13 +1750,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1774,59 +1783,92 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>805.5</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>99</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>100</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
         <v>101</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>64</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>68</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>828.5</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>102</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>103</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>104</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1965,10 +2007,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -302,22 +311,25 @@
     <t>190.0000</t>
   </si>
   <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 11:47 AM</t>
+    <t>Wednesday, 13 August, 2025 12:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1552,7 +1564,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1562,14 +1574,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1578,31 +1590,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1611,14 +1623,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1628,11 +1640,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1644,14 +1656,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1661,11 +1673,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1677,14 +1689,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1694,11 +1706,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1750,7 +1762,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1783,7 +1795,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1816,7 +1828,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1826,49 +1838,115 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>828.5</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>103</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>34</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>64</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>101</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>102</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>103</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>104</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>105</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>64</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>68</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>878.5</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>106</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>107</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>108</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2012,10 +2090,20 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMRI-K 10MG/ML 5 AMP. I.M.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>19.8000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -122,6 +134,18 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CYANARO 1% EYE DROPS 2.5 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -134,6 +158,21 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -158,15 +197,9 @@
     <t>ITRAPEX 100MG 4 CAPS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
     <t>2:0</t>
   </si>
   <si>
@@ -179,15 +212,6 @@
     <t>ORS 10 SACHET</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -212,6 +236,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>SEKEM ملين</t>
   </si>
   <si>
@@ -230,6 +263,15 @@
     <t>11.4500</t>
   </si>
   <si>
+    <t>SEPTAZOLE SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -290,7 +332,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -329,7 +371,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 12:05 PM</t>
+    <t>Wednesday, 13 August, 2025 12:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1086,7 +1128,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1102,7 +1144,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1112,14 +1154,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1128,14 +1170,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1152,7 +1194,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1185,7 +1227,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1218,7 +1260,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1234,7 +1276,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1244,14 +1286,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1260,14 +1302,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1277,14 +1319,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1293,14 +1335,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1310,14 +1352,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1326,14 +1368,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1343,14 +1385,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1359,14 +1401,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1376,14 +1418,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1392,31 +1434,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1425,31 +1467,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1458,14 +1500,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1475,11 +1517,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1491,31 +1533,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1524,14 +1566,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1541,7 +1583,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1564,17 +1606,17 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1597,7 +1639,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1607,14 +1649,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1623,20 +1665,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1663,24 +1705,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1689,31 +1731,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1722,28 +1764,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1755,31 +1797,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1795,21 +1837,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1821,28 +1863,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1861,21 +1903,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1887,66 +1929,231 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>108</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>42</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>72</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>109</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>878.5</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>106</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>107</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>108</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>111</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>16</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>72</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>112</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>114</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>31</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>72</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>115</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>117</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>38</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>72</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>115</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>118</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>119</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>72</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>79</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1062.5</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>120</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>121</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>122</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2100,10 +2307,35 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -173,6 +173,24 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>DIASTOP SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -194,6 +212,15 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>GLYCERIN SOAP</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>ITRAPEX 100MG 4 CAPS.</t>
   </si>
   <si>
@@ -302,6 +329,15 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>الفيف بلسم 400 مل</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>جل صبار برطمان</t>
   </si>
   <si>
@@ -353,6 +389,15 @@
     <t>190.0000</t>
   </si>
   <si>
+    <t>كريم هيمالايا</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -371,7 +416,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 12:11 PM</t>
+    <t>Wednesday, 13 August, 2025 12:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1342,7 +1387,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1352,14 +1397,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1368,14 +1413,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1385,14 +1430,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1401,14 +1446,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1422,10 +1467,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1441,7 +1486,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1451,11 +1496,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1467,14 +1512,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1484,14 +1529,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1500,14 +1545,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1517,14 +1562,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1533,31 +1578,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1573,7 +1618,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1583,14 +1628,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1599,31 +1644,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1632,20 +1677,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1672,7 +1717,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1689,7 +1734,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1711,7 +1756,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1722,7 +1767,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1738,7 +1783,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1748,11 +1793,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1764,14 +1809,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1781,11 +1826,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1797,14 +1842,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1814,14 +1859,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1830,31 +1875,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1876,15 +1921,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1896,31 +1941,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1929,7 +1974,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1942,18 +1987,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1962,28 +2007,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1995,28 +2040,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2028,28 +2073,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2068,24 +2113,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2094,66 +2139,231 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1062.5</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>120</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>121</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
-        <v>122</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>123</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>16</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>81</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>124</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>126</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>42</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>81</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>127</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>129</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>31</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>81</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>130</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>132</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>38</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>81</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>130</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>133</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>134</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>81</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>88</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1315.5</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>135</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>136</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>137</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2332,10 +2542,35 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -416,7 +416,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 12:44 PM</t>
+    <t>Wednesday, 13 August, 2025 12:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -171,15 +171,6 @@
   </si>
   <si>
     <t>0:4</t>
-  </si>
-  <si>
-    <t>DIASTOP SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
   </si>
   <si>
     <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
@@ -1387,7 +1378,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1404,7 +1395,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1420,7 +1411,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1430,14 +1421,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1446,14 +1437,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1470,7 +1461,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1486,7 +1477,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1533,10 +1524,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>69</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1552,7 +1543,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1562,14 +1553,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1578,14 +1569,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1595,14 +1586,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1611,14 +1602,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1628,14 +1619,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1657,15 +1648,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1677,20 +1668,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1717,13 +1708,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1734,7 +1725,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1750,13 +1741,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1767,7 +1758,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1783,7 +1774,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1800,7 +1791,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1833,7 +1824,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1859,14 +1850,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1875,14 +1866,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1892,14 +1883,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1915,7 +1906,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1925,14 +1916,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1941,31 +1932,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1981,21 +1972,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2007,28 +1998,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2040,28 +2031,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2073,31 +2064,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2119,7 +2110,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2130,7 +2121,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2146,13 +2137,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2179,13 +2170,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2212,13 +2203,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2245,21 +2236,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2271,99 +2262,66 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="A45" s="7">
-        <v>39</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c t="s" r="C45" s="8">
+      <c r="P45" s="13">
+        <v>1285.5</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>132</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
         <v>133</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c t="s" r="H45" s="9">
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
         <v>134</v>
       </c>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c t="s" r="L45" s="10">
-        <v>81</v>
-      </c>
-      <c r="M45" s="10"/>
-      <c t="s" r="N45" s="8">
-        <v>88</v>
-      </c>
-      <c r="O45" s="8"/>
-      <c t="s" r="P45" s="11">
-        <v>89</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1315.5</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>135</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>136</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
-        <v>137</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2562,15 +2520,10 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -407,7 +407,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 12:45 PM</t>
+    <t>Wednesday, 13 August, 2025 12:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -125,289 +125,301 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CYANARO 1% EYE DROPS 2.5 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>DIASTOP SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>GLYCERIN SOAP</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>ITRAPEX 100MG 4 CAPS.</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>SEKEM ملين</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
+  </si>
+  <si>
+    <t>229.00</t>
+  </si>
+  <si>
+    <t>11.4500</t>
+  </si>
+  <si>
+    <t>SEPTAZOLE SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>الفيف بلسم 400 مل</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>جل صبار برطمان</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>52:0</t>
+  </si>
+  <si>
+    <t>ريكسونه رجالى</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 4</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>كريم هيمالايا</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
     <t>17:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CYANARO 1% EYE DROPS 2.5 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>5:3</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>GLYCERIN SOAP</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>ITRAPEX 100MG 4 CAPS.</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>SEKEM ملين</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
-  </si>
-  <si>
-    <t>229.00</t>
-  </si>
-  <si>
-    <t>11.4500</t>
-  </si>
-  <si>
-    <t>SEPTAZOLE SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>SILDEN 50 MG 4 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>الفيف بلسم 400 مل</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>جل صبار برطمان</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>52:0</t>
-  </si>
-  <si>
-    <t>ريكسونه رجالى</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 4</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>كريم هيمالايا</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>محلول رينجر</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 12:46 PM</t>
+    <t>Wednesday, 13 August, 2025 12:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1263,7 +1275,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1272,14 +1284,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1289,11 +1301,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1305,14 +1317,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1322,11 +1334,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1338,14 +1350,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1355,14 +1367,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1371,14 +1383,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1388,14 +1400,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1404,14 +1416,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1428,7 +1440,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1444,7 +1456,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1454,14 +1466,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1470,14 +1482,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1487,11 +1499,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1503,14 +1515,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1520,14 +1532,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1536,14 +1548,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1553,14 +1565,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1569,14 +1581,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1586,14 +1598,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1602,14 +1614,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1619,14 +1631,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1648,15 +1660,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1668,20 +1680,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1708,13 +1720,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1725,7 +1737,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1741,13 +1753,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1758,7 +1770,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1774,7 +1786,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1791,7 +1803,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1824,7 +1836,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1850,14 +1862,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1866,14 +1878,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1883,14 +1895,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1906,7 +1918,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1916,14 +1928,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1932,31 +1944,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1972,21 +1984,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1998,28 +2010,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2031,28 +2043,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2064,31 +2076,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2104,13 +2116,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2121,7 +2133,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2137,13 +2149,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2170,13 +2182,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2203,13 +2215,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2236,21 +2248,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2262,66 +2274,99 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1285.5</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>132</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
-        <v>133</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>134</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>135</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>81</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>88</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1348.5</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>136</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>137</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>138</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2520,10 +2565,15 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -419,7 +419,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 12:52 PM</t>
+    <t>Wednesday, 13 August, 2025 12:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -338,6 +338,15 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>بلسم صانسيلك كبير 350ملل</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>جل صبار برطمان</t>
   </si>
   <si>
@@ -419,7 +428,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 12:53 PM</t>
+    <t>Wednesday, 13 August, 2025 1:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2017,7 +2026,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2027,11 +2036,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2043,14 +2052,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2060,11 +2069,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2076,14 +2085,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2093,11 +2102,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2109,14 +2118,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2126,14 +2135,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2166,7 +2175,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2182,7 +2191,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2215,7 +2224,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2248,7 +2257,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2281,7 +2290,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2291,11 +2300,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2307,14 +2316,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2324,49 +2333,82 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>137</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>138</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>81</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>88</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>89</v>
       </c>
-      <c t="s" r="Q45" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1348.5</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>136</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>137</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
-        <v>138</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1443.5</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>139</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>140</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>141</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2570,10 +2612,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -428,7 +428,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 1:00 PM</t>
+    <t>Wednesday, 13 August, 2025 1:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -101,6 +101,18 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -428,7 +440,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 1:05 PM</t>
+    <t>Wednesday, 13 August, 2025 1:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1234,7 +1246,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1244,14 +1256,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1260,14 +1272,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1284,7 +1296,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1293,14 +1305,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1310,14 +1322,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1350,7 +1362,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1383,7 +1395,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1392,14 +1404,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1416,7 +1428,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1425,14 +1437,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1442,14 +1454,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1458,14 +1470,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1482,7 +1494,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1498,7 +1510,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1508,14 +1520,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1524,14 +1536,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1541,11 +1553,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1557,14 +1569,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1574,14 +1586,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1590,14 +1602,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1607,14 +1619,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1623,14 +1635,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1640,14 +1652,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1656,14 +1668,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1673,14 +1685,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1689,20 +1701,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1710,7 +1722,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1722,28 +1734,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1755,31 +1767,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1788,31 +1800,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1821,14 +1833,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1838,14 +1850,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1854,7 +1866,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1871,14 +1883,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1887,7 +1899,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1904,14 +1916,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1920,14 +1932,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1937,14 +1949,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1953,14 +1965,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1970,14 +1982,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1986,31 +1998,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2019,28 +2031,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2052,20 +2064,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2098,15 +2110,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2118,28 +2130,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2151,31 +2163,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2184,31 +2196,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2217,28 +2229,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2250,28 +2262,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2283,28 +2295,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2316,28 +2328,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2349,66 +2361,99 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1443.5</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>139</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>140</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>141</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>142</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>85</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>92</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1492.5</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>143</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>144</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>145</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2617,10 +2662,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -251,6 +251,12 @@
     <t>ORS 10 SACHET</t>
   </si>
   <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -389,9 +395,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -440,7 +443,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 1:10 PM</t>
+    <t>Wednesday, 13 August, 2025 1:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1675,7 +1678,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1689,10 +1692,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1701,14 +1704,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1718,7 +1721,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -1734,28 +1737,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1767,7 +1770,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1784,11 +1787,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1800,7 +1803,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1813,15 +1816,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1833,7 +1836,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1850,11 +1853,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1866,7 +1869,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1883,11 +1886,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1899,7 +1902,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1916,11 +1919,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>66</v>
@@ -1932,7 +1935,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1953,7 +1956,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1965,14 +1968,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1986,7 +1989,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1998,7 +2001,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2019,7 +2022,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>66</v>
@@ -2031,7 +2034,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2044,15 +2047,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2064,7 +2067,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2077,15 +2080,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2097,28 +2100,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2130,28 +2133,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2163,28 +2166,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2196,7 +2199,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2209,18 +2212,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2229,7 +2232,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2242,15 +2245,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2262,7 +2265,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2275,15 +2278,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2295,7 +2298,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2308,15 +2311,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2328,7 +2331,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2341,15 +2344,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2361,28 +2364,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2394,28 +2397,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2423,13 +2426,13 @@
     </row>
     <row r="48" ht="24.75" customHeight="1">
       <c r="P48" s="13">
-        <v>1492.5</v>
+        <v>1496.5</v>
       </c>
       <c r="Q48" s="13"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c t="s" r="A49" s="14">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -2437,13 +2440,13 @@
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c t="s" r="G49" s="15">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="16"/>
       <c t="s" r="K49" s="17">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -116,9 +131,6 @@
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -146,9 +158,6 @@
     <t>66.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>CYANARO 1% EYE DROPS 2.5 ML</t>
   </si>
   <si>
@@ -425,9 +434,6 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -443,7 +449,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 1:27 PM</t>
+    <t>Wednesday, 13 August, 2025 1:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1167,7 +1173,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1176,14 +1182,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1193,11 +1199,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1209,14 +1215,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1226,14 +1232,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1242,14 +1248,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1259,11 +1265,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1275,7 +1281,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1292,14 +1298,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1308,14 +1314,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1332,7 +1338,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1341,14 +1347,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1358,14 +1364,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1374,14 +1380,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1391,14 +1397,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1407,14 +1413,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1424,14 +1430,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1440,14 +1446,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1457,14 +1463,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1480,7 +1486,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1497,7 +1503,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1513,7 +1519,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1523,14 +1529,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1539,14 +1545,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1563,7 +1569,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1579,7 +1585,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1612,7 +1618,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1626,10 +1632,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1638,14 +1644,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1655,14 +1661,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1671,14 +1677,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1688,14 +1694,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1721,14 +1727,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1750,15 +1756,15 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1770,20 +1776,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1810,13 +1816,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1827,7 +1833,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1843,13 +1849,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1860,7 +1866,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1876,7 +1882,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1893,7 +1899,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1926,7 +1932,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1952,14 +1958,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1968,14 +1974,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1985,14 +1991,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2008,7 +2014,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2018,14 +2024,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2034,31 +2040,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2074,13 +2080,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2107,21 +2113,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2133,28 +2139,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2166,28 +2172,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2199,31 +2205,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2232,31 +2238,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2272,13 +2278,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2305,13 +2311,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2338,13 +2344,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2371,21 +2377,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2410,53 +2416,86 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1496.5</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>144</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
         <v>145</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>90</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>97</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>1544.5</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
         <v>146</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>147</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>148</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2670,10 +2709,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -44,12 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t xml:space="preserve"> بودره نلج خمس خمسات</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -59,9 +74,6 @@
     <t>32.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AMRI-K 10MG/ML 5 AMP. I.M.</t>
   </si>
   <si>
@@ -227,6 +239,9 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -251,6 +266,15 @@
     <t>26.00</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -263,9 +287,6 @@
     <t>0:3</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -281,9 +302,6 @@
     <t>2:3</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -302,12 +320,6 @@
     <t>SEKEM ملين</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>SEPTAZOLE 400/80MG 20*10 TAB.</t>
   </si>
   <si>
@@ -341,6 +353,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>VERANO CAPS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -404,6 +425,12 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -449,7 +476,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 1:30 PM</t>
+    <t>Wednesday, 13 August, 2025 2:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1123,13 +1150,13 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
@@ -1140,7 +1167,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1149,31 +1176,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1182,31 +1209,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1228,7 +1255,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1239,7 +1266,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1261,7 +1288,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1272,7 +1299,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1288,21 +1315,21 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1314,31 +1341,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1347,20 +1374,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1371,7 +1398,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1393,7 +1420,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1404,7 +1431,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1426,7 +1453,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1437,7 +1464,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1459,7 +1486,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1470,7 +1497,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1479,20 +1506,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1503,7 +1530,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1512,31 +1539,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1545,20 +1572,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1569,7 +1596,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1585,24 +1612,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1611,28 +1638,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1644,31 +1671,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1684,21 +1711,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1710,31 +1737,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1756,18 +1783,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1783,24 +1810,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1809,31 +1836,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1842,31 +1869,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1875,14 +1902,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1892,14 +1919,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1908,31 +1935,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1941,7 +1968,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1958,14 +1985,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1974,31 +2001,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2007,28 +2034,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2040,31 +2067,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2073,31 +2100,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2106,31 +2133,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2139,28 +2166,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2172,31 +2199,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2205,28 +2232,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2238,31 +2265,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2271,28 +2298,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2304,28 +2331,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2337,28 +2364,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2370,31 +2397,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2403,28 +2430,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2436,66 +2463,198 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>1544.5</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>146</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>54</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>13</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>147</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
         <v>148</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>149</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>27</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>13</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>28</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>151</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>152</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>13</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>28</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>153</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>154</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>13</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>14</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>1662</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>155</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>156</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>157</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2714,10 +2873,30 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -281,6 +281,18 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -425,10 +437,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -476,7 +488,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 2:37 PM</t>
+    <t>Wednesday, 13 August, 2025 2:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1853,14 +1865,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>91</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1869,14 +1881,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1886,14 +1898,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1902,28 +1914,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -1942,21 +1954,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -1968,31 +1980,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2001,31 +2013,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2034,14 +2046,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2051,14 +2063,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2067,7 +2079,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2084,14 +2096,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2100,7 +2112,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2117,14 +2129,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2133,28 +2145,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2166,31 +2178,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2199,14 +2211,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2216,14 +2228,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2232,31 +2244,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2265,7 +2277,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2282,11 +2294,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2298,14 +2310,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2348,11 +2360,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2364,14 +2376,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2381,11 +2393,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2397,14 +2409,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2414,14 +2426,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2454,7 +2466,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2463,14 +2475,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2480,11 +2492,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2496,14 +2508,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2513,11 +2525,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2529,14 +2541,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2546,11 +2558,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2562,14 +2574,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2583,7 +2595,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2595,14 +2607,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2612,49 +2624,82 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>157</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>158</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>13</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>14</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q52" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>1662</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>155</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>156</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>157</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>1674.56</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>159</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>160</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>161</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2893,10 +2938,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -488,7 +488,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 2:39 PM</t>
+    <t>Wednesday, 13 August, 2025 2:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -329,6 +329,12 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PONOFORTE 500MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>SEKEM ملين</t>
   </si>
   <si>
@@ -488,7 +494,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 2:45 PM</t>
+    <t>Wednesday, 13 August, 2025 2:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2020,24 +2026,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2046,31 +2052,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2079,14 +2085,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2096,14 +2102,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2112,7 +2118,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2129,14 +2135,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2145,7 +2151,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2162,14 +2168,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2185,21 +2191,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2211,31 +2217,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2244,14 +2250,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2261,14 +2267,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2284,24 +2290,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2310,7 +2316,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2327,11 +2333,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2343,14 +2349,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2360,11 +2366,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2376,14 +2382,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2393,11 +2399,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2416,7 +2422,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2426,11 +2432,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2449,7 +2455,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2463,10 +2469,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>143</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2475,7 +2481,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2492,14 +2498,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2508,14 +2514,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2525,11 +2531,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2541,14 +2547,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2558,11 +2564,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2574,14 +2580,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2591,7 +2597,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2614,7 +2620,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2628,7 +2634,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2657,49 +2663,82 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>159</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>160</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>13</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>14</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q53" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>1674.56</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>159</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>160</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>1689.56</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
         <v>161</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>162</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>163</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2943,10 +2982,15 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>EUTHYROX 50MCG 50 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -293,6 +302,15 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -302,9 +320,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -365,6 +380,15 @@
     <t>11.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">VANCE  30 TAB</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -494,7 +518,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 2:47 PM</t>
+    <t>Wednesday, 13 August, 2025 3:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1630,7 +1654,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1640,14 +1664,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1656,14 +1680,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1673,14 +1697,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1689,14 +1713,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1706,11 +1730,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1729,7 +1753,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1776,10 +1800,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1788,14 +1812,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1805,14 +1829,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1828,7 +1852,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1838,14 +1862,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1854,14 +1878,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1871,14 +1895,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1887,14 +1911,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1904,14 +1928,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>95</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1920,14 +1944,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1941,7 +1965,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -1953,31 +1977,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1986,14 +2010,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2003,14 +2027,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2019,24 +2043,24 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2059,24 +2083,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2085,7 +2109,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2102,11 +2126,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2118,7 +2142,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2131,15 +2155,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2151,14 +2175,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2168,14 +2192,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2184,7 +2208,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2201,14 +2225,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2224,13 +2248,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2241,7 +2265,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2257,17 +2281,17 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2290,7 +2314,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2300,14 +2324,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2340,7 +2364,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2356,17 +2380,17 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2389,24 +2413,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2415,14 +2439,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2432,11 +2456,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2448,14 +2472,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2465,11 +2489,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2488,7 +2512,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2498,14 +2522,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2521,7 +2545,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2531,11 +2555,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2547,14 +2571,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2564,11 +2588,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2580,7 +2604,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2597,14 +2621,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2613,14 +2637,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2630,7 +2654,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2653,7 +2677,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2663,11 +2687,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2679,14 +2703,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2696,49 +2720,148 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>163</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>27</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>13</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>28</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>165</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>166</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>13</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>28</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>167</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>168</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>13</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>14</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q54" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>1689.56</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>161</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
-        <v>162</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
-        <v>163</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>1947.76</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>169</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>170</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>171</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2987,10 +3110,25 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -446,9 +455,6 @@
     <t>25.00</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -518,7 +524,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 3:10 PM</t>
+    <t>Wednesday, 13 August, 2025 3:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1456,7 +1462,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1466,14 +1472,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1482,14 +1488,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1499,14 +1505,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1515,14 +1521,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1532,14 +1538,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1548,14 +1554,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1565,14 +1571,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1581,14 +1587,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1598,14 +1604,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>68</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1621,7 +1627,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1638,7 +1644,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1654,7 +1660,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1671,7 +1677,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1687,7 +1693,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1697,14 +1703,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1713,14 +1719,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1730,14 +1736,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1746,14 +1752,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1763,11 +1769,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1786,7 +1792,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1819,7 +1825,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1833,10 +1839,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1845,14 +1851,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1862,14 +1868,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1885,7 +1891,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1895,14 +1901,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1911,14 +1917,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1928,14 +1934,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1944,14 +1950,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1984,7 +1990,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1994,14 +2000,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2010,14 +2016,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2027,14 +2033,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2043,20 +2049,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2064,10 +2070,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2076,20 +2082,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2116,7 +2122,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2126,11 +2132,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2142,31 +2148,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2175,31 +2181,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2215,7 +2221,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2232,7 +2238,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2265,7 +2271,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2281,13 +2287,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2298,7 +2304,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2314,24 +2320,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2340,24 +2346,24 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2380,24 +2386,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2413,7 +2419,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2423,14 +2429,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2439,31 +2445,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2479,7 +2485,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2512,7 +2518,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2522,11 +2528,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2538,14 +2544,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2555,11 +2561,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2578,7 +2584,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2588,11 +2594,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2611,7 +2617,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2625,10 +2631,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2637,14 +2643,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2654,14 +2660,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2670,14 +2676,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2687,11 +2693,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2703,14 +2709,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2720,11 +2726,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2736,14 +2742,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2753,7 +2759,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2776,7 +2782,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2790,7 +2796,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2819,49 +2825,82 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>169</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>170</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>13</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>14</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q57" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>1947.76</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>169</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>170</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>1972.76</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
         <v>171</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>172</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>173</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3125,10 +3164,15 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -524,7 +524,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 3:26 PM</t>
+    <t>Wednesday, 13 August, 2025 3:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -179,12 +179,21 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>CONTRA ANTIDANDRUFF SHAMPOO 150 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>CYANARO 1% EYE DROPS 2.5 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
@@ -299,6 +308,18 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>NARJI VIALS</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>460.00</t>
+  </si>
+  <si>
+    <t>460.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -407,9 +428,6 @@
     <t>VERANO CAPS</t>
   </si>
   <si>
-    <t>150.00</t>
-  </si>
-  <si>
     <t>49.5000</t>
   </si>
   <si>
@@ -524,7 +542,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 3:48 PM</t>
+    <t>Wednesday, 13 August, 2025 3:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1561,7 +1579,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1571,14 +1589,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1587,14 +1605,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1604,14 +1622,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1620,14 +1638,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1637,14 +1655,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>71</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1660,7 +1678,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1677,7 +1695,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1693,7 +1711,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1710,7 +1728,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1726,7 +1744,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1736,14 +1754,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1752,14 +1770,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1769,14 +1787,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1785,14 +1803,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1802,11 +1820,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1825,7 +1843,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1872,10 +1890,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1884,14 +1902,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1901,14 +1919,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1924,7 +1942,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1934,14 +1952,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1950,14 +1968,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1967,14 +1985,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1983,20 +2001,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2007,7 +2025,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2033,14 +2051,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2049,14 +2067,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2066,14 +2084,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2082,31 +2100,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2115,14 +2133,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2132,14 +2150,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2155,21 +2173,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2181,31 +2199,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2214,7 +2232,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2231,11 +2249,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2247,7 +2265,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2260,15 +2278,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2280,14 +2298,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2297,14 +2315,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2313,28 +2331,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2346,7 +2364,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2363,14 +2381,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2379,7 +2397,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2396,14 +2414,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2412,14 +2430,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2429,14 +2447,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2445,31 +2463,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2478,28 +2496,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2511,31 +2529,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2551,7 +2569,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2561,11 +2579,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2584,7 +2602,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2594,11 +2612,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2610,14 +2628,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2627,11 +2645,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2643,14 +2661,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2660,14 +2678,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2683,7 +2701,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2697,7 +2715,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2709,14 +2727,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2726,14 +2744,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>161</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2782,7 +2800,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2792,11 +2810,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2808,14 +2826,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2825,11 +2843,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2841,14 +2859,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2858,49 +2876,115 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>173</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>174</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>13</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>28</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>175</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>176</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>13</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>14</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q58" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>1972.76</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>171</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
-        <v>172</v>
-      </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
-        <v>173</v>
-      </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2582.7600000000002</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>177</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>178</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>179</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3169,10 +3253,20 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -311,13 +311,10 @@
     <t>NARJI VIALS</t>
   </si>
   <si>
-    <t>0:-1</t>
-  </si>
-  <si>
     <t>460.00</t>
   </si>
   <si>
-    <t>460.0000</t>
+    <t>381.8000</t>
   </si>
   <si>
     <t>NEUROTON 6 AMP</t>
@@ -2008,7 +2005,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2018,14 +2015,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2034,14 +2031,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2051,11 +2048,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2067,7 +2064,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2084,11 +2081,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2100,14 +2097,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2124,7 +2121,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2133,7 +2130,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2150,7 +2147,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2166,14 +2163,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2183,11 +2180,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2199,7 +2196,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2216,11 +2213,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2232,7 +2229,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2253,7 +2250,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2265,7 +2262,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2298,7 +2295,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2315,11 +2312,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2331,7 +2328,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2348,11 +2345,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2364,7 +2361,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2381,11 +2378,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>82</v>
@@ -2397,7 +2394,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2414,11 +2411,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2430,7 +2427,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2451,7 +2448,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2463,7 +2460,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2484,7 +2481,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2496,14 +2493,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2517,7 +2514,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2529,7 +2526,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2550,7 +2547,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>82</v>
@@ -2562,7 +2559,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2579,11 +2576,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2595,7 +2592,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2612,11 +2609,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2628,14 +2625,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2645,7 +2642,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2661,14 +2658,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2694,14 +2691,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2711,11 +2708,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2727,7 +2724,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2744,14 +2741,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>160</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>161</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2760,7 +2757,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2777,11 +2774,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2793,7 +2790,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2810,11 +2807,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2826,7 +2823,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2843,11 +2840,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2859,7 +2856,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2880,7 +2877,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2892,14 +2889,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2913,7 +2910,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2925,14 +2922,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2954,13 +2951,13 @@
     </row>
     <row r="61" ht="25.5" customHeight="1">
       <c r="P61" s="13">
-        <v>2582.7600000000002</v>
+        <v>2504.5599999999999</v>
       </c>
       <c r="Q61" s="13"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c t="s" r="A62" s="14">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -2968,13 +2965,13 @@
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c t="s" r="G62" s="15">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
       <c r="J62" s="16"/>
       <c t="s" r="K62" s="17">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -452,6 +452,15 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>امواس لورد</t>
+  </si>
+  <si>
+    <t>37:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
     <t>بلسم صانسيلك كبير 350ملل</t>
   </si>
   <si>
@@ -476,6 +485,15 @@
     <t>52:0</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>ريكسونه رجالى</t>
   </si>
   <si>
@@ -497,12 +515,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
     <t>سيتي بيبي رقم 4</t>
   </si>
   <si>
@@ -521,6 +533,12 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -539,7 +557,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 3:57 PM</t>
+    <t>Wednesday, 13 August, 2025 5:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2599,7 +2617,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2609,11 +2627,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2632,7 +2650,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2642,11 +2660,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2675,11 +2693,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2691,14 +2709,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2708,11 +2726,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2724,7 +2742,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2741,14 +2759,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2764,7 +2782,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2778,7 +2796,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2790,14 +2808,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2807,14 +2825,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>166</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2840,11 +2858,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2856,14 +2874,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2873,11 +2891,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2889,14 +2907,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2906,11 +2924,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2939,49 +2957,148 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>176</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>27</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>13</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>28</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>178</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>179</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>13</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>28</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>180</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>181</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>13</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>14</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q60" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2504.5599999999999</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>176</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>177</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
-        <v>178</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>2537.5599999999999</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>182</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>183</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>184</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3260,10 +3377,25 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -557,7 +557,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 5:12 PM</t>
+    <t>Wednesday, 13 August, 2025 5:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -191,6 +191,15 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>COVERAM 5/5MG 15 TABS.</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
     <t>CYANARO 1% EYE DROPS 2.5 ML</t>
   </si>
   <si>
@@ -236,6 +245,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>DIOSED-C 20 TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -278,6 +296,15 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>GLYCERIN SOAP</t>
   </si>
   <si>
@@ -407,12 +434,30 @@
     <t>11.0000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>TARIVID 200MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">VANCE  30 TAB</t>
   </si>
   <si>
-    <t>110.00</t>
-  </si>
-  <si>
     <t>110.0000</t>
   </si>
   <si>
@@ -531,6 +576,9 @@
   </si>
   <si>
     <t>45.0000</t>
+  </si>
+  <si>
+    <t>كيس جمع بول</t>
   </si>
   <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
@@ -1627,7 +1675,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1637,14 +1685,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1653,14 +1701,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1670,14 +1718,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1686,14 +1734,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1703,14 +1751,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>74</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1726,7 +1774,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1743,7 +1791,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1759,7 +1807,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1776,7 +1824,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1792,7 +1840,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1802,14 +1850,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1818,14 +1866,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1835,11 +1883,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1851,14 +1899,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1868,14 +1916,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1884,14 +1932,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1901,11 +1949,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1924,7 +1972,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1938,10 +1986,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1950,14 +1998,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1967,11 +2015,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -1983,14 +2031,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2000,11 +2048,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2016,7 +2064,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2029,18 +2077,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2049,14 +2097,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2066,7 +2114,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2089,7 +2137,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2099,14 +2147,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2115,31 +2163,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2155,7 +2203,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2165,14 +2213,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2181,28 +2229,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2214,14 +2262,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2231,14 +2279,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>119</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2254,7 +2302,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2264,14 +2312,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2287,7 +2335,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2297,14 +2345,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2313,14 +2361,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2330,11 +2378,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2346,14 +2394,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2363,14 +2411,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2379,7 +2427,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2392,18 +2440,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2425,7 +2473,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2436,7 +2484,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2462,14 +2510,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2478,31 +2526,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2511,14 +2559,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2528,14 +2576,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2544,14 +2592,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2561,14 +2609,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2577,7 +2625,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2594,11 +2642,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2610,31 +2658,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2643,7 +2691,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2660,14 +2708,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2676,28 +2724,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2709,31 +2757,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2742,7 +2790,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2759,11 +2807,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2775,14 +2823,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2792,11 +2840,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2808,7 +2856,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2825,14 +2873,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2841,14 +2889,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2858,11 +2906,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2874,14 +2922,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2891,11 +2939,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2907,7 +2955,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2924,11 +2972,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2940,14 +2988,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2957,11 +3005,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2973,14 +3021,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2990,14 +3038,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3006,14 +3054,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3023,11 +3071,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3039,14 +3087,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3056,49 +3104,247 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>186</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>57</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>13</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>187</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>189</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>30</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>13</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>14</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q63" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>2537.5599999999999</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>182</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
-        <v>183</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
-        <v>184</v>
-      </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>190</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>191</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>13</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>164</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>192</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>27</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>13</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>28</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>194</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>195</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>13</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>28</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>196</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>197</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>13</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>14</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>2883.3000000000002</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>198</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>199</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>200</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3392,10 +3638,40 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -143,6 +143,9 @@
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -152,6 +155,9 @@
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -368,6 +374,9 @@
     <t>ORS 10 SACHET</t>
   </si>
   <si>
+    <t>3:3</t>
+  </si>
+  <si>
     <t>0:3</t>
   </si>
   <si>
@@ -437,9 +446,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>0:-1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -605,7 +611,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 5:20 PM</t>
+    <t>Wednesday, 13 August, 2025 5:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1477,7 +1483,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1487,11 +1493,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1503,14 +1509,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1520,11 +1526,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>25</v>
@@ -1536,7 +1542,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1553,11 +1559,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>25</v>
@@ -1569,14 +1575,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1586,11 +1592,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>30</v>
@@ -1602,14 +1608,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1619,11 +1625,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1635,14 +1641,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1652,11 +1658,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1668,14 +1674,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1685,11 +1691,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1701,14 +1707,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1718,11 +1724,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>25</v>
@@ -1734,14 +1740,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1751,14 +1757,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1767,7 +1773,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1784,11 +1790,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1800,7 +1806,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1817,11 +1823,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -1833,7 +1839,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1850,14 +1856,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1866,14 +1872,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1883,11 +1889,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1899,14 +1905,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1916,11 +1922,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1932,7 +1938,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1949,11 +1955,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1965,14 +1971,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1982,11 +1988,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1998,14 +2004,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2015,11 +2021,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -2031,14 +2037,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2048,11 +2054,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2064,14 +2070,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2081,11 +2087,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>30</v>
@@ -2097,14 +2103,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2118,7 +2124,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2130,7 +2136,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2151,7 +2157,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2163,14 +2169,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2180,11 +2186,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>36</v>
@@ -2196,14 +2202,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2213,11 +2219,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2229,7 +2235,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2246,11 +2252,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2262,14 +2268,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2283,10 +2289,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2295,7 +2301,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2312,14 +2318,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2328,14 +2334,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2345,11 +2351,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2361,7 +2367,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2378,11 +2384,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2394,14 +2400,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2411,11 +2417,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2427,7 +2433,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2460,14 +2466,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2477,11 +2483,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2493,7 +2499,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2510,11 +2516,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2526,7 +2532,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2543,14 +2549,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2559,14 +2565,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2576,11 +2582,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2592,7 +2598,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2609,11 +2615,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2625,14 +2631,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,11 +2648,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2658,7 +2664,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2675,11 +2681,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2691,14 +2697,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2708,11 +2714,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2724,14 +2730,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,11 +2747,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2757,7 +2763,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2774,14 +2780,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2790,14 +2796,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2807,11 +2813,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2823,14 +2829,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2840,11 +2846,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2856,14 +2862,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2873,11 +2879,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2889,14 +2895,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2906,11 +2912,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2922,14 +2928,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2955,14 +2961,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2972,11 +2978,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2988,14 +2994,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3005,11 +3011,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3021,14 +3027,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3038,14 +3044,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3054,14 +3060,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3071,11 +3077,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3087,7 +3093,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3104,11 +3110,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3120,14 +3126,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3137,11 +3143,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3153,7 +3159,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3186,14 +3192,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3203,11 +3209,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3219,7 +3225,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3240,7 +3246,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3252,14 +3258,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3273,7 +3279,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3285,14 +3291,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3320,7 +3326,7 @@
     </row>
     <row r="71" ht="16.5" customHeight="1">
       <c t="s" r="A71" s="14">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -3328,13 +3334,13 @@
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c t="s" r="G71" s="15">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
       <c r="J71" s="16"/>
       <c t="s" r="K71" s="17">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L71" s="17"/>
       <c r="M71" s="17"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -176,13 +176,13 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>16:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>66.0000</t>
+    <t>99.0000</t>
   </si>
   <si>
     <t>CONTRA ANTIDANDRUFF SHAMPOO 150 ML</t>
@@ -320,6 +320,12 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>HEPATICUM 10MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>ITRAPEX 100MG 4 CAPS.</t>
   </si>
   <si>
@@ -341,6 +347,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>NARJI VIALS</t>
   </si>
   <si>
@@ -566,6 +581,12 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>62:0</t>
+  </si>
+  <si>
     <t>سيتي بيبي رقم 4</t>
   </si>
   <si>
@@ -611,7 +632,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 5:30 PM</t>
+    <t>Wednesday, 13 August, 2025 5:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1599,7 +1620,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2077,7 +2098,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2087,14 +2108,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2110,7 +2131,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2120,14 +2141,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2136,14 +2157,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2153,14 +2174,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2176,24 +2197,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2202,14 +2223,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2219,14 +2240,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2235,31 +2256,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2268,14 +2289,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2285,14 +2306,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2301,14 +2322,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2318,14 +2339,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2347,18 +2368,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2367,14 +2388,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2384,14 +2405,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2400,24 +2421,24 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2440,24 +2461,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2466,7 +2487,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2483,11 +2504,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2499,7 +2520,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2512,15 +2533,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2532,14 +2553,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2549,14 +2570,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2565,14 +2586,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2582,14 +2603,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2598,7 +2619,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2615,14 +2636,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2631,31 +2652,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2681,14 +2702,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2697,7 +2718,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2714,14 +2735,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2730,14 +2751,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2747,14 +2768,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2770,24 +2791,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2803,17 +2824,17 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2836,24 +2857,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2862,7 +2883,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2879,11 +2900,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2895,14 +2916,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2912,11 +2933,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2928,14 +2949,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2945,11 +2966,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2968,7 +2989,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2978,11 +2999,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3001,7 +3022,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3011,11 +3032,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3051,7 +3072,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3060,14 +3081,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3077,11 +3098,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3100,7 +3121,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3117,7 +3138,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3126,7 +3147,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3143,11 +3164,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3159,14 +3180,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3176,11 +3197,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3199,7 +3220,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3209,11 +3230,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3225,14 +3246,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3242,11 +3263,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3258,14 +3279,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3275,11 +3296,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3291,14 +3312,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3308,49 +3329,148 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>201</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>27</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>13</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>28</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>203</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>204</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>13</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>28</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>205</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>206</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>13</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>14</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q69" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>2883.3000000000002</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>200</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>201</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
-        <v>202</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3000.3000000000002</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>207</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>208</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>209</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3674,10 +3794,25 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -632,7 +632,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 5:31 PM</t>
+    <t>Wednesday, 13 August, 2025 5:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -326,6 +326,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>HERO BABY NUTRADEFENSE PLUS 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>329.00</t>
+  </si>
+  <si>
+    <t>329.0000</t>
+  </si>
+  <si>
     <t>ITRAPEX 100MG 4 CAPS.</t>
   </si>
   <si>
@@ -632,7 +641,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 5:48 PM</t>
+    <t>Wednesday, 13 August, 2025 5:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2145,10 +2154,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2157,14 +2166,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2174,14 +2183,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2197,7 +2206,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2207,14 +2216,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2223,14 +2232,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2240,7 +2249,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2263,13 +2272,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2280,7 +2289,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2296,24 +2305,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2322,14 +2331,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2362,7 +2371,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2372,14 +2381,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>127</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2395,7 +2404,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2405,14 +2414,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2421,20 +2430,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2442,10 +2451,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2454,20 +2463,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2494,7 +2503,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2504,11 +2513,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2520,31 +2529,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2553,31 +2562,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2593,7 +2602,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2610,7 +2619,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2643,7 +2652,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2659,7 +2668,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2676,7 +2685,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2692,7 +2701,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2709,7 +2718,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2725,21 +2734,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2751,31 +2760,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2784,28 +2793,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2817,31 +2826,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2857,7 +2866,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2867,14 +2876,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2883,31 +2892,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2923,7 +2932,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2933,11 +2942,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2956,7 +2965,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2966,11 +2975,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2989,7 +2998,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2999,11 +3008,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3032,11 +3041,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3048,14 +3057,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3065,11 +3074,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3088,7 +3097,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3102,7 +3111,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3114,14 +3123,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3131,14 +3140,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3147,7 +3156,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3164,14 +3173,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3180,14 +3189,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>59</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3197,11 +3206,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3213,14 +3222,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3230,11 +3239,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3253,7 +3262,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3286,7 +3295,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3296,11 +3305,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3312,14 +3321,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3329,11 +3338,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3345,14 +3354,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3362,11 +3371,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3378,14 +3387,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3399,7 +3408,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3411,14 +3420,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3428,49 +3437,82 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>208</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>209</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>13</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>14</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q72" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>3000.3000000000002</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>207</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>208</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
-        <v>209</v>
-      </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3329.3000000000002</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>210</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>211</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>212</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3809,10 +3851,15 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -641,7 +641,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 5:51 PM</t>
+    <t>Wednesday, 13 August, 2025 6:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -494,7 +494,7 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>36.0000</t>
   </si>
   <si>
     <t>VERANO CAPS</t>
@@ -641,7 +641,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 6:43 PM</t>
+    <t>Wednesday, 13 August, 2025 7:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2800,7 +2800,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2817,7 +2817,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3482,7 +3482,7 @@
     </row>
     <row r="74" ht="25.5" customHeight="1">
       <c r="P74" s="13">
-        <v>3329.3000000000002</v>
+        <v>3347.3000000000002</v>
       </c>
       <c r="Q74" s="13"/>
     </row>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -251,6 +251,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>DIOSED-C 20 TABS.</t>
   </si>
   <si>
@@ -293,6 +302,15 @@
     <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -362,9 +380,6 @@
     <t>31.00</t>
   </si>
   <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>NARJI VIALS</t>
   </si>
   <si>
@@ -512,6 +527,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -641,7 +665,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 7:10 PM</t>
+    <t>Wednesday, 13 August, 2025 7:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1876,7 +1900,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1893,7 +1917,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1909,7 +1933,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1926,7 +1950,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1942,7 +1966,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1952,14 +1976,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1968,14 +1992,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1985,14 +2009,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2001,14 +2025,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2018,11 +2042,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2041,7 +2065,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2074,7 +2098,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2117,14 +2141,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2133,7 +2157,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2150,11 +2174,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2166,14 +2190,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2183,14 +2207,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2199,14 +2223,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2216,14 +2240,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2232,14 +2256,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2249,14 +2273,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2265,14 +2289,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2282,14 +2306,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2298,31 +2322,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2338,7 +2362,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2348,14 +2372,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2364,31 +2388,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2397,14 +2421,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2414,14 +2438,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>130</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2430,14 +2454,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2447,14 +2471,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2476,18 +2500,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2496,14 +2520,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2513,14 +2537,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2529,24 +2553,24 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2569,24 +2593,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2595,7 +2619,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2612,11 +2636,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2628,7 +2652,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2641,15 +2665,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2661,14 +2685,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,14 +2702,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2694,14 +2718,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2711,14 +2735,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2727,7 +2751,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2744,14 +2768,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2760,31 +2784,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2800,7 +2824,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2810,11 +2834,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2826,7 +2850,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2843,14 +2867,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2859,14 +2883,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2876,7 +2900,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2899,24 +2923,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2932,17 +2956,17 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -2965,24 +2989,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2998,24 +3022,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3024,14 +3048,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3041,11 +3065,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3057,14 +3081,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3074,11 +3098,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3130,7 +3154,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3140,11 +3164,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3156,14 +3180,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3173,14 +3197,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3189,7 +3213,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3206,11 +3230,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3222,14 +3246,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3239,11 +3263,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3255,14 +3279,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3272,14 +3296,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3288,7 +3312,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3305,11 +3329,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3328,7 +3352,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3338,11 +3362,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3354,14 +3378,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3371,11 +3395,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3387,14 +3411,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3404,11 +3428,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3420,14 +3444,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3437,11 +3461,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3453,14 +3477,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3470,49 +3494,148 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>212</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>27</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>13</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>28</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>214</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>215</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>13</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>28</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>216</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>217</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>13</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>14</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q73" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3347.3000000000002</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>210</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>211</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
-        <v>212</v>
-      </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3498</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>218</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>219</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>220</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3856,10 +3979,25 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -299,6 +299,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -380,6 +389,15 @@
     <t>31.00</t>
   </si>
   <si>
+    <t xml:space="preserve">MERCAVA  SACHET</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>450.0000</t>
+  </si>
+  <si>
     <t>NARJI VIALS</t>
   </si>
   <si>
@@ -452,6 +470,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>SANTASEA 180 ML SYRUP</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>400.0000</t>
+  </si>
+  <si>
     <t>SEKEM ملين</t>
   </si>
   <si>
@@ -665,7 +692,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 7:12 PM</t>
+    <t>Wednesday, 13 August, 2025 7:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2032,7 +2059,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2042,14 +2069,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2058,14 +2085,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2075,14 +2102,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2098,7 +2125,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2115,7 +2142,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2131,7 +2158,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2148,7 +2175,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2164,7 +2191,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2181,7 +2208,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2197,7 +2224,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2207,11 +2234,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2223,14 +2250,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2240,7 +2267,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2277,10 +2304,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2289,14 +2316,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2306,14 +2333,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2329,7 +2356,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2339,14 +2366,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2355,14 +2382,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2372,11 +2399,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2388,31 +2415,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2428,24 +2455,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2454,31 +2481,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2487,14 +2514,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2504,14 +2531,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>135</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2527,7 +2554,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2541,10 +2568,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2553,31 +2580,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>141</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2593,7 +2620,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2607,10 +2634,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2619,28 +2646,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2652,31 +2679,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2685,7 +2712,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2702,11 +2729,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2718,14 +2745,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2735,11 +2762,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2751,7 +2778,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2764,18 +2791,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2791,7 +2818,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2857,24 +2884,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2883,14 +2910,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2900,14 +2927,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2916,31 +2943,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2949,28 +2976,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2982,14 +3009,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2999,14 +3026,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3015,31 +3042,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3048,28 +3075,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3081,20 +3108,20 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3102,10 +3129,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3114,31 +3141,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3154,7 +3181,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>59</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3164,11 +3191,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3197,11 +3224,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3213,7 +3240,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3230,11 +3257,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3246,14 +3273,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3263,11 +3290,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3279,14 +3306,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3296,14 +3323,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>199</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3329,11 +3356,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3345,14 +3372,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3362,11 +3389,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3378,14 +3405,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3395,14 +3422,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3411,7 +3438,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3428,11 +3455,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3444,14 +3471,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3461,11 +3488,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3477,14 +3504,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3494,11 +3521,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3510,14 +3537,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3527,11 +3554,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3543,14 +3570,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3560,11 +3587,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3576,14 +3603,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3593,49 +3620,148 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>221</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>27</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>13</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>28</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>223</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>224</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>13</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>28</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>225</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>226</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>13</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>14</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q76" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3498</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>218</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>219</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
-        <v>220</v>
-      </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>4351.8400000000001</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>227</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>228</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>229</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3994,10 +4120,25 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -320,6 +320,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -572,12 +581,6 @@
     <t>الفيف بلسم 400 مل</t>
   </si>
   <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
     <t>امواس لورد</t>
   </si>
   <si>
@@ -692,7 +695,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 7:30 PM</t>
+    <t>Wednesday, 13 August, 2025 7:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2158,7 +2161,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2191,7 +2194,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2208,7 +2211,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2224,7 +2227,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2241,7 +2244,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2257,7 +2260,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2267,11 +2270,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2283,14 +2286,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2300,7 +2303,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2337,10 +2340,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2349,14 +2352,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2366,14 +2369,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2389,7 +2392,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2399,14 +2402,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2415,14 +2418,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2432,11 +2435,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2448,28 +2451,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2505,7 +2508,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2521,24 +2524,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2547,14 +2550,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2587,7 +2590,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2597,14 +2600,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>141</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2620,7 +2623,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2630,14 +2633,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>93</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2646,20 +2649,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2667,10 +2670,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2679,20 +2682,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2719,7 +2722,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2729,11 +2732,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2745,7 +2748,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2762,14 +2765,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2785,21 +2788,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2811,31 +2814,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2851,7 +2854,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2868,7 +2871,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2901,7 +2904,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2917,7 +2920,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2934,7 +2937,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2950,7 +2953,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2967,7 +2970,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2983,21 +2986,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3009,28 +3012,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3042,31 +3045,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3075,31 +3078,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3115,7 +3118,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3125,14 +3128,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3148,7 +3151,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3158,14 +3161,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3174,31 +3177,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3214,7 +3217,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3224,11 +3227,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3240,14 +3243,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3257,11 +3260,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3273,14 +3276,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3290,11 +3293,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>53</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3306,14 +3309,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3323,11 +3326,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3339,14 +3342,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3356,11 +3359,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3372,14 +3375,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3389,11 +3392,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3405,14 +3408,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3422,14 +3425,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>208</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3438,7 +3441,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3455,14 +3458,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3478,7 +3481,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3488,11 +3491,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3504,14 +3507,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3521,11 +3524,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3537,14 +3540,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3554,11 +3557,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3570,14 +3573,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3587,11 +3590,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3610,7 +3613,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3620,11 +3623,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3636,14 +3639,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3653,11 +3656,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3669,14 +3672,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3690,7 +3693,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3702,14 +3705,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3719,49 +3722,82 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>226</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>227</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>13</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>14</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q79" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>4351.8400000000001</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
-        <v>227</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>4486.8400000000001</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
         <v>228</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
         <v>229</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>230</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4135,10 +4171,15 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -89,6 +89,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -260,6 +269,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>DIOSED-C 20 TABS.</t>
   </si>
   <si>
@@ -323,12 +341,18 @@
     <t>FERRODUONAL 30 CAP</t>
   </si>
   <si>
-    <t>135.00</t>
-  </si>
-  <si>
     <t>135.0000</t>
   </si>
   <si>
+    <t>FLEBOTON 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -407,6 +431,15 @@
     <t>450.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>NARJI VIALS</t>
   </si>
   <si>
@@ -464,21 +497,36 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
     <t>102.00</t>
   </si>
   <si>
-    <t>51.0000</t>
-  </si>
-  <si>
     <t>PONOFORTE 500MG 20 CAPS.</t>
   </si>
   <si>
     <t>15.0000</t>
   </si>
   <si>
+    <t>RELATROLENE 25 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
     <t>SANTASEA 180 ML SYRUP</t>
   </si>
   <si>
@@ -578,6 +626,15 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>WINZOXIB 90MG 20 TAB</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
     <t>الفيف بلسم 400 مل</t>
   </si>
   <si>
@@ -635,10 +692,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -695,7 +752,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 7:34 PM</t>
+    <t>Wednesday, 13 August, 2025 7:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1435,7 +1492,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1445,14 +1502,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1461,14 +1518,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1478,14 +1535,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1494,14 +1551,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1511,11 +1568,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>25</v>
@@ -1527,14 +1584,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1544,14 +1601,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1560,14 +1617,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1577,11 +1634,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1593,14 +1650,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1610,14 +1667,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1626,14 +1683,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1666,7 +1723,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1676,14 +1733,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1692,14 +1749,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1709,14 +1766,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1725,14 +1782,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1765,7 +1822,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1798,7 +1855,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1808,14 +1865,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1824,14 +1881,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1841,14 +1898,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1857,14 +1914,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1874,14 +1931,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>79</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1914,7 +1971,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1963,7 +2020,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1980,7 +2037,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1996,7 +2053,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2013,7 +2070,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2029,7 +2086,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2039,14 +2096,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2055,14 +2112,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2072,14 +2129,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2088,14 +2145,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2105,14 +2162,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2121,14 +2178,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2138,11 +2195,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2154,14 +2211,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2171,11 +2228,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2194,7 +2251,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2211,7 +2268,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2227,7 +2284,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2237,14 +2294,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2253,14 +2310,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2270,11 +2327,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2286,14 +2343,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2303,7 +2360,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2326,7 +2383,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2343,7 +2400,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2359,7 +2416,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2373,10 +2430,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2385,14 +2442,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2402,14 +2459,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2425,7 +2482,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2435,11 +2492,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2451,14 +2508,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2468,14 +2525,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2484,31 +2541,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2517,31 +2574,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2557,7 +2614,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2567,14 +2624,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2583,31 +2640,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2616,14 +2673,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2633,14 +2690,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2649,31 +2706,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>93</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2682,28 +2739,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2715,14 +2772,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2732,11 +2789,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2748,14 +2805,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2765,14 +2822,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>155</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2788,7 +2845,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2802,10 +2859,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2814,14 +2871,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2831,14 +2888,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2847,14 +2904,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2864,14 +2921,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2880,14 +2937,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2897,14 +2954,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2913,14 +2970,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2930,14 +2987,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2953,7 +3010,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2970,7 +3027,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2986,7 +3043,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3019,7 +3076,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3029,11 +3086,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3045,14 +3102,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3062,14 +3119,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3085,24 +3142,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3111,14 +3168,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3128,14 +3185,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3144,14 +3201,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3161,11 +3218,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3177,14 +3234,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3194,14 +3251,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3210,14 +3267,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3227,11 +3284,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3243,28 +3300,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>73</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3276,14 +3333,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3293,14 +3350,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3309,28 +3366,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3342,31 +3399,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3375,31 +3432,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3408,31 +3465,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3441,14 +3498,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3458,14 +3515,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3474,14 +3531,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>59</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3491,11 +3548,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3507,14 +3564,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3524,11 +3581,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3540,14 +3597,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3557,11 +3614,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3573,14 +3630,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>59</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3590,11 +3647,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3606,14 +3663,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3623,11 +3680,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3639,14 +3696,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3656,11 +3713,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3672,14 +3729,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3689,14 +3746,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3705,14 +3762,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>62</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3722,11 +3779,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>28</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3738,14 +3795,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3755,49 +3812,280 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>232</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>16</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>13</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>233</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>235</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>62</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>13</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>236</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>238</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>33</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>13</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>14</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q80" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>4486.8400000000001</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>228</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>229</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
-        <v>230</v>
-      </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>239</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>240</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>13</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>211</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>241</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>30</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>13</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>31</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>243</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>244</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>13</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>31</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>245</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>246</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>13</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>14</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4995.6599999999999</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>247</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>248</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>249</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4176,10 +4464,45 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -752,7 +752,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 7:35 PM</t>
+    <t>Wednesday, 13 August, 2025 7:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -491,9 +500,6 @@
     <t>2:3</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>27.0000</t>
   </si>
   <si>
@@ -609,6 +615,15 @@
   </si>
   <si>
     <t>26.0000</t>
+  </si>
+  <si>
+    <t>VILDABETES 50/1000MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
   </si>
   <si>
     <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
@@ -1690,7 +1705,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1700,11 +1715,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>25</v>
@@ -1716,14 +1731,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1756,7 +1771,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1766,14 +1781,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1782,14 +1797,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1799,14 +1814,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1815,14 +1830,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1855,7 +1870,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1888,7 +1903,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1898,14 +1913,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1914,14 +1929,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1931,14 +1946,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1947,14 +1962,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1964,14 +1979,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>82</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2004,7 +2019,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2037,7 +2052,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2070,7 +2085,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2086,7 +2101,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2103,7 +2118,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2119,7 +2134,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2136,7 +2151,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2152,7 +2167,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2162,14 +2177,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2178,14 +2193,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2195,7 +2210,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2218,7 +2233,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2228,14 +2243,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2244,14 +2259,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2261,14 +2276,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2284,7 +2299,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2294,14 +2309,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2310,14 +2325,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2327,7 +2342,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2350,7 +2365,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2360,7 +2375,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2383,7 +2398,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2400,7 +2415,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2416,7 +2431,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2433,7 +2448,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2449,7 +2464,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2459,11 +2474,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2475,14 +2490,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2492,7 +2507,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2515,7 +2530,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2529,10 +2544,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2541,14 +2556,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2558,14 +2573,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2581,7 +2596,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2591,14 +2606,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2607,14 +2622,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2624,11 +2639,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2640,28 +2655,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2680,13 +2695,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2713,13 +2728,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2730,7 +2745,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2746,24 +2761,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2772,14 +2787,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2812,7 +2827,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2822,14 +2837,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>155</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2845,7 +2860,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2855,14 +2870,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>99</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2871,20 +2886,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2892,10 +2907,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2904,31 +2919,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2937,14 +2952,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2954,14 +2969,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2977,7 +2992,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2987,11 +3002,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3010,7 +3025,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3020,14 +3035,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3036,14 +3051,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3053,11 +3068,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3069,28 +3084,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3102,31 +3117,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3135,14 +3150,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3152,14 +3167,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3168,7 +3183,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3185,14 +3200,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3201,14 +3216,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3218,14 +3233,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3234,14 +3249,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3251,14 +3266,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3267,24 +3282,24 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3307,17 +3322,17 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3340,24 +3355,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3373,24 +3388,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3399,14 +3414,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3416,14 +3431,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3432,14 +3447,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3449,14 +3464,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3472,7 +3487,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3505,24 +3520,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3531,20 +3546,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3552,10 +3567,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3564,14 +3579,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3581,11 +3596,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3597,14 +3612,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3614,11 +3629,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3630,14 +3645,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3647,11 +3662,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3670,7 +3685,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3680,11 +3695,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3703,7 +3718,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3713,11 +3728,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3736,7 +3751,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3753,7 +3768,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>228</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3762,14 +3777,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3779,11 +3794,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3802,7 +3817,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>65</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3812,14 +3827,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3828,14 +3843,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3845,11 +3860,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3868,7 +3883,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3878,11 +3893,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3894,14 +3909,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3911,11 +3926,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3927,14 +3942,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3944,11 +3959,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3960,14 +3975,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3977,11 +3992,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3993,14 +4008,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4010,11 +4025,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4026,14 +4041,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4043,49 +4058,115 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>248</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>249</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>13</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>31</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>250</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>251</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>13</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>14</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q87" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4995.6599999999999</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>247</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>248</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
-        <v>249</v>
-      </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>5092.6800000000003</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>252</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>253</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>254</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4499,10 +4580,20 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMRI-K 10MG/ML 5 AMP. I.M.</t>
   </si>
   <si>
@@ -86,9 +101,6 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -137,6 +149,18 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>BILASTOMED 20 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>100.50</t>
+  </si>
+  <si>
+    <t>33.1650</t>
+  </si>
+  <si>
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
@@ -149,6 +173,18 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -176,9 +212,6 @@
     <t>3:2</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -317,9 +350,6 @@
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -767,7 +797,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 7:38 PM</t>
+    <t>Wednesday, 13 August, 2025 7:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1507,7 +1537,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1517,11 +1547,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>25</v>
@@ -1533,14 +1563,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1557,7 +1587,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1566,14 +1596,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1583,14 +1613,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1656,7 +1686,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1689,7 +1719,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1705,7 +1735,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1715,14 +1745,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1731,14 +1761,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1748,14 +1778,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1764,14 +1794,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1781,14 +1811,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1797,14 +1827,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1814,14 +1844,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1830,14 +1860,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1847,14 +1877,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1870,7 +1900,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1887,7 +1917,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1903,7 +1933,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1913,14 +1943,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1929,14 +1959,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1946,14 +1976,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1962,14 +1992,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1986,7 +2016,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1995,14 +2025,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2012,11 +2042,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2028,14 +2058,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2068,7 +2098,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2078,14 +2108,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2094,7 +2124,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2111,14 +2141,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2127,14 +2157,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2144,14 +2174,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2160,14 +2190,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2177,11 +2207,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2193,14 +2223,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2210,11 +2240,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2226,14 +2256,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2243,14 +2273,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2259,14 +2289,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2276,11 +2306,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2292,14 +2322,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2309,11 +2339,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -2325,14 +2355,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2342,14 +2372,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2358,14 +2388,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2375,11 +2405,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2391,14 +2421,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2408,14 +2438,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2424,14 +2454,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2441,14 +2471,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2457,14 +2487,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2474,11 +2504,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2490,14 +2520,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2507,11 +2537,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2523,14 +2553,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2540,14 +2570,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2556,14 +2586,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2573,14 +2603,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2589,14 +2619,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2606,14 +2636,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2622,14 +2652,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2639,11 +2669,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2655,14 +2685,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2672,14 +2702,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2688,31 +2718,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2721,14 +2751,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2738,11 +2768,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2754,31 +2784,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2787,20 +2817,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2811,7 +2841,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2827,7 +2857,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2844,7 +2874,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2860,24 +2890,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>158</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2893,7 +2923,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2903,14 +2933,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>102</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2919,28 +2949,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2952,14 +2982,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2969,14 +2999,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2985,14 +3015,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3002,14 +3032,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3018,28 +3048,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3051,14 +3081,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3068,11 +3098,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3084,14 +3114,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3101,14 +3131,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3117,31 +3147,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3150,14 +3180,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3167,14 +3197,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3183,14 +3213,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3200,11 +3230,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3216,7 +3246,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3229,18 +3259,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3249,14 +3279,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3266,11 +3296,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3282,7 +3312,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3299,11 +3329,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3315,31 +3345,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3348,14 +3378,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3365,14 +3395,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3381,31 +3411,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3414,28 +3444,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3447,14 +3477,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3464,14 +3494,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3480,28 +3510,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3513,14 +3543,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3530,14 +3560,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3546,14 +3576,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3563,11 +3593,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3579,31 +3609,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3612,31 +3642,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3645,31 +3675,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3678,14 +3708,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3695,11 +3725,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3711,14 +3741,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3728,11 +3758,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3744,14 +3774,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3761,11 +3791,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3777,14 +3807,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3794,11 +3824,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3810,14 +3840,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>65</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3827,14 +3857,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>233</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3843,14 +3873,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3860,11 +3890,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3876,14 +3906,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3893,11 +3923,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3909,14 +3939,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3926,14 +3956,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3942,14 +3972,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3959,11 +3989,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3975,14 +4005,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3992,11 +4022,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4008,14 +4038,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4025,11 +4055,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4041,14 +4071,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4058,11 +4088,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4074,14 +4104,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4091,11 +4121,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4107,14 +4137,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4124,49 +4154,148 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>256</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>34</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>13</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>35</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>258</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>259</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>13</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>35</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>260</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>261</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>13</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>14</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q89" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>5092.6800000000003</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>252</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>253</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
-        <v>254</v>
-      </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>5172.375</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>262</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>263</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>264</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4590,10 +4719,25 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -149,12 +149,24 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>BILASTOMED 20 MG 30 TABS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>100.50</t>
   </si>
   <si>
@@ -182,9 +194,6 @@
     <t>72.00</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -239,9 +248,6 @@
     <t>CONTRA ANTIDANDRUFF SHAMPOO 150 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>150.00</t>
   </si>
   <si>
@@ -512,10 +518,7 @@
     <t>ORS 10 SACHET</t>
   </si>
   <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>0:3</t>
+    <t>2:3</t>
   </si>
   <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
@@ -527,9 +530,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>2:3</t>
-  </si>
-  <si>
     <t>27.0000</t>
   </si>
   <si>
@@ -797,7 +797,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 7:46 PM</t>
+    <t>Wednesday, 13 August, 2025 7:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1719,7 +1719,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1728,14 +1728,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1752,7 +1752,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1785,7 +1785,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1815,10 +1815,10 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1827,14 +1827,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1851,7 +1851,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1867,7 +1867,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1900,7 +1900,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
@@ -1933,7 +1933,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1943,14 +1943,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1959,14 +1959,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1976,14 +1976,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1992,14 +1992,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2009,11 +2009,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2025,14 +2025,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2058,14 +2058,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2075,14 +2075,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2091,14 +2091,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2108,14 +2108,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2124,14 +2124,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2141,14 +2141,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2174,14 +2174,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2207,14 +2207,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2240,14 +2240,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2256,14 +2256,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2273,14 +2273,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2289,14 +2289,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2306,14 +2306,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2339,14 +2339,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2355,14 +2355,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2372,11 +2372,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2388,14 +2388,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2405,14 +2405,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2421,14 +2421,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2438,14 +2438,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2454,14 +2454,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2471,14 +2471,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2494,7 +2494,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2504,11 +2504,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2520,14 +2520,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2537,11 +2537,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2553,14 +2553,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2570,14 +2570,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2586,14 +2586,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2603,14 +2603,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2619,14 +2619,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2659,7 +2659,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2669,11 +2669,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2685,14 +2685,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2702,14 +2702,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2725,7 +2725,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2735,14 +2735,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2751,14 +2751,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2768,14 +2768,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2791,7 +2791,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2801,11 +2801,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2824,13 +2824,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2850,28 +2850,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2883,31 +2883,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2916,31 +2916,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2949,14 +2949,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2966,11 +2966,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2982,14 +2982,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2999,14 +2999,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>168</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3015,14 +3015,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3032,14 +3032,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3048,31 +3048,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3081,31 +3081,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3114,14 +3114,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3131,14 +3131,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3147,14 +3147,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3164,11 +3164,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3180,14 +3180,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3197,14 +3197,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3213,14 +3213,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3230,11 +3230,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3246,28 +3246,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3279,31 +3279,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3312,14 +3312,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3329,14 +3329,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3362,14 +3362,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3378,14 +3378,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3395,14 +3395,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3411,14 +3411,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3428,14 +3428,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3444,28 +3444,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3477,28 +3477,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3510,31 +3510,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3543,31 +3543,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>47</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3576,14 +3576,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3593,14 +3593,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3626,11 +3626,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3642,14 +3642,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3659,14 +3659,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3675,14 +3675,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3692,14 +3692,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>115</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3708,31 +3708,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3741,14 +3741,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>47</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3758,11 +3758,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3774,14 +3774,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3791,11 +3791,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3807,14 +3807,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3824,11 +3824,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3840,14 +3840,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3857,11 +3857,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3873,14 +3873,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3890,11 +3890,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3906,14 +3906,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3923,11 +3923,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3939,14 +3939,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3956,14 +3956,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>243</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3972,14 +3972,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3989,14 +3989,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4005,14 +4005,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>47</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4038,14 +4038,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4055,11 +4055,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4071,14 +4071,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4088,11 +4088,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4104,14 +4104,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4121,11 +4121,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4137,14 +4137,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4154,11 +4154,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4170,14 +4170,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>34</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4187,11 +4187,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4203,14 +4203,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>34</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4236,14 +4236,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4253,49 +4253,82 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>260</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>261</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>13</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>14</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q92" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>5172.375</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>5228.2150000000001</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
         <v>262</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
         <v>263</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
         <v>264</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4734,10 +4767,15 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -272,6 +272,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>DAPABLIX 10MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -308,6 +317,9 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
+  </si>
+  <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
   </si>
   <si>
@@ -416,6 +428,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GLYCERIN SOAP</t>
   </si>
   <si>
@@ -596,9 +617,6 @@
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
-    <t>22.00</t>
-  </si>
-  <si>
     <t>11.0000</t>
   </si>
   <si>
@@ -650,12 +668,6 @@
     <t>VILDABETES 50/1000MG 30 TABS.</t>
   </si>
   <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
     <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
   </si>
   <si>
@@ -746,6 +758,18 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t>سرنجات دواء 5 سم</t>
   </si>
   <si>
@@ -761,6 +785,15 @@
     <t>190.0000</t>
   </si>
   <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>كريم هيمالايا</t>
   </si>
   <si>
@@ -797,7 +830,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 7:59 PM</t>
+    <t>Wednesday, 13 August, 2025 8:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2098,7 +2131,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2108,11 +2141,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -2124,14 +2157,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2141,14 +2174,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>95</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2157,14 +2190,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2174,14 +2207,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>98</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2214,7 +2247,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2230,7 +2263,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2240,14 +2273,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2256,7 +2289,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2273,11 +2306,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -2289,14 +2322,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2306,14 +2339,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2322,14 +2355,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2339,14 +2372,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2355,14 +2388,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2372,14 +2405,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2388,14 +2421,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2405,14 +2438,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2421,14 +2454,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2438,14 +2471,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2461,7 +2494,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2471,7 +2504,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2494,7 +2527,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2504,11 +2537,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2520,14 +2553,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2537,14 +2570,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2553,14 +2586,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2570,11 +2603,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2586,14 +2619,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2603,14 +2636,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2619,14 +2652,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2636,11 +2669,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2652,7 +2685,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2669,14 +2702,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2685,14 +2718,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2702,11 +2735,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2718,7 +2751,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2735,14 +2768,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2758,7 +2791,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2768,14 +2801,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2784,14 +2817,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2801,7 +2834,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2824,7 +2857,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2838,10 +2871,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2857,24 +2890,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2890,7 +2923,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2900,11 +2933,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2916,31 +2949,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2949,31 +2982,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2982,14 +3015,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2999,14 +3032,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3015,31 +3048,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3048,14 +3081,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3065,14 +3098,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3088,21 +3121,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3114,14 +3147,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3131,14 +3164,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3154,7 +3187,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3168,10 +3201,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3187,17 +3220,17 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3220,7 +3253,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3253,7 +3286,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3267,10 +3300,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3279,31 +3312,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3336,7 +3369,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3352,7 +3385,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3391,18 +3424,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3411,14 +3444,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3428,11 +3461,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3444,7 +3477,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3461,11 +3494,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3477,31 +3510,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3510,14 +3543,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3527,14 +3560,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>89</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3543,31 +3576,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3583,21 +3616,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>47</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3609,14 +3642,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3626,14 +3659,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3642,28 +3675,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3675,14 +3708,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3692,14 +3725,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3708,14 +3741,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3725,11 +3758,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>88</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3741,31 +3774,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3774,31 +3807,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3807,31 +3840,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3840,14 +3873,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3857,11 +3890,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3873,14 +3906,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3890,11 +3923,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3906,7 +3939,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3923,11 +3956,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3939,14 +3972,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3956,11 +3989,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3972,14 +4005,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3989,14 +4022,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>243</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4005,7 +4038,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4022,11 +4055,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4038,14 +4071,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4055,11 +4088,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4071,14 +4104,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4088,14 +4121,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4104,7 +4137,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4121,11 +4154,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4137,14 +4170,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4154,11 +4187,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4170,14 +4203,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4187,11 +4220,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4203,14 +4236,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4220,7 +4253,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>35</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4243,7 +4276,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>47</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4253,11 +4286,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4269,14 +4302,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>47</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4286,49 +4319,214 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>264</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>37</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>13</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>14</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q93" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>5228.2150000000001</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>262</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>263</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>264</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>265</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>266</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>13</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>230</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>267</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>34</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>13</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>35</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>269</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>270</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>13</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>35</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>271</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>272</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>13</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>14</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5364.2349999999997</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>273</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>274</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>275</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4772,10 +4970,35 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -584,6 +584,18 @@
     <t>98.0000</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>SANTASEA 180 ML SYRUP</t>
   </si>
   <si>
@@ -722,6 +734,9 @@
     <t>25.00</t>
   </si>
   <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -830,7 +845,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 8:06 PM</t>
+    <t>Wednesday, 13 August, 2025 8:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3385,7 +3400,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3395,14 +3410,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3411,28 +3426,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3444,31 +3459,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3477,14 +3492,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3494,14 +3509,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3510,7 +3525,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3527,14 +3542,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3543,14 +3558,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3560,14 +3575,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3576,14 +3591,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3593,14 +3608,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3609,28 +3624,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3642,28 +3657,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3675,31 +3690,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3708,31 +3723,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3741,14 +3756,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>47</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3758,14 +3773,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3774,14 +3789,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3791,11 +3806,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3807,14 +3822,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3824,14 +3839,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3840,14 +3855,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3857,14 +3872,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3873,31 +3888,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3906,14 +3921,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3923,11 +3938,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>31</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3939,14 +3954,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>47</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3956,11 +3971,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3972,14 +3987,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>47</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3993,7 +4008,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4005,14 +4020,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4022,11 +4037,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4038,14 +4053,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4055,11 +4070,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4078,7 +4093,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4088,11 +4103,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4128,7 +4143,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4137,14 +4152,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>47</v>
+        <v>239</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4154,11 +4169,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4177,7 +4192,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>47</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4187,14 +4202,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q89" s="12">
         <v>252</v>
-      </c>
-      <c t="s" r="Q89" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4210,7 +4225,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>47</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4220,11 +4235,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4236,14 +4251,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4276,7 +4291,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>47</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4286,11 +4301,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4302,14 +4317,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4319,11 +4334,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4335,14 +4350,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4352,11 +4367,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4368,14 +4383,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>47</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4385,11 +4400,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>187</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4401,14 +4416,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4418,11 +4433,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4434,14 +4449,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4451,11 +4466,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>35</v>
+        <v>234</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4467,14 +4482,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>34</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4484,49 +4499,115 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>274</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>275</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>13</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>35</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>276</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>277</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>13</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>14</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q98" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5364.2349999999997</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>273</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>274</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>275</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5386.2849999999999</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>278</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>279</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>280</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4995,10 +5076,20 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -845,7 +845,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 8:33 PM</t>
+    <t>Wednesday, 13 August, 2025 8:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -176,13 +176,13 @@
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>49.00</t>
   </si>
   <si>
-    <t>49.0000</t>
+    <t>98.0000</t>
   </si>
   <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
@@ -581,9 +581,6 @@
     <t>98.00</t>
   </si>
   <si>
-    <t>98.0000</t>
-  </si>
-  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -845,7 +842,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 8:34 PM</t>
+    <t>Wednesday, 13 August, 2025 8:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1833,7 +1830,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -3381,7 +3378,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3393,14 +3390,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3410,11 +3407,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3426,7 +3423,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3443,11 +3440,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3459,7 +3456,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3492,7 +3489,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3509,11 +3506,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3525,7 +3522,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3542,11 +3539,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3558,7 +3555,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3579,7 +3576,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>50</v>
@@ -3591,7 +3588,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3608,11 +3605,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3624,7 +3621,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3641,11 +3638,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3657,7 +3654,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3678,7 +3675,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3690,7 +3687,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3711,7 +3708,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3723,7 +3720,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3744,7 +3741,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3756,14 +3753,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3777,7 +3774,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3789,7 +3786,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3822,7 +3819,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3839,11 +3836,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3855,7 +3852,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3876,7 +3873,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>50</v>
@@ -3888,7 +3885,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3905,11 +3902,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -3921,7 +3918,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3954,14 +3951,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3971,7 +3968,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -3987,7 +3984,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4004,11 +4001,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4020,14 +4017,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4037,7 +4034,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4053,7 +4050,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4070,7 +4067,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4086,14 +4083,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4119,7 +4116,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4136,11 +4133,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4152,14 +4149,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4169,7 +4166,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4185,7 +4182,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4202,14 +4199,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q89" s="12">
         <v>251</v>
-      </c>
-      <c t="s" r="Q89" s="12">
-        <v>252</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4218,7 +4215,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4235,11 +4232,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4251,14 +4248,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4268,11 +4265,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4284,14 +4281,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4301,11 +4298,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4317,7 +4314,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4334,11 +4331,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4350,7 +4347,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4367,11 +4364,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4383,7 +4380,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4400,11 +4397,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4416,7 +4413,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4449,14 +4446,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4466,7 +4463,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4482,7 +4479,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4503,7 +4500,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4515,14 +4512,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4536,7 +4533,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4548,14 +4545,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4577,13 +4574,13 @@
     </row>
     <row r="101" ht="25.5" customHeight="1">
       <c r="P101" s="13">
-        <v>5386.2849999999999</v>
+        <v>5435.2849999999999</v>
       </c>
       <c r="Q101" s="13"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
       <c t="s" r="A102" s="14">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -4591,13 +4588,13 @@
       <c r="E102" s="14"/>
       <c r="F102" s="14"/>
       <c t="s" r="G102" s="15">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
       <c r="J102" s="16"/>
       <c t="s" r="K102" s="17">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L102" s="17"/>
       <c r="M102" s="17"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>AMIGRAINE ADCO 30 TABLETS</t>
   </si>
   <si>
@@ -137,6 +149,15 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -152,9 +173,6 @@
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -344,9 +362,6 @@
     <t>76.00</t>
   </si>
   <si>
-    <t>38.0000</t>
-  </si>
-  <si>
     <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -488,6 +503,15 @@
     <t>31.00</t>
   </si>
   <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
     <t xml:space="preserve">MERCAVA  SACHET</t>
   </si>
   <si>
@@ -497,6 +521,12 @@
     <t>450.0000</t>
   </si>
   <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -551,9 +581,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>PANTAZOL 40MG 14 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -842,7 +869,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 8:36 PM</t>
+    <t>Wednesday, 13 August, 2025 8:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1566,7 +1593,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1575,14 +1602,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1592,14 +1619,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1615,7 +1642,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1625,14 +1652,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1641,14 +1668,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1665,7 +1692,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1674,14 +1701,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1691,14 +1718,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1731,7 +1758,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1747,7 +1774,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1757,14 +1784,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1773,7 +1800,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1790,14 +1817,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1806,14 +1833,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1823,14 +1850,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1839,14 +1866,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1856,14 +1883,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1872,14 +1899,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1889,14 +1916,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1905,14 +1932,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1926,10 +1953,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1938,14 +1965,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1955,14 +1982,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1978,7 +2005,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1995,7 +2022,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2021,14 +2048,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2037,14 +2064,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2054,14 +2081,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2070,14 +2097,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2094,7 +2121,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2110,7 +2137,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2143,7 +2170,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2160,7 +2187,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2176,7 +2203,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2186,14 +2213,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2202,14 +2229,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2219,14 +2246,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2235,14 +2262,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2252,14 +2279,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2268,14 +2295,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2285,14 +2312,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2301,7 +2328,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2318,14 +2345,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2334,14 +2361,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2351,14 +2378,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2391,7 +2418,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2407,7 +2434,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2424,7 +2451,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2440,7 +2467,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2454,10 +2481,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2466,14 +2493,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2483,14 +2510,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2499,14 +2526,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2516,14 +2543,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2532,14 +2559,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2549,14 +2576,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2565,14 +2592,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2582,14 +2609,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2598,14 +2625,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2615,11 +2642,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2638,7 +2665,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2648,14 +2675,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2671,7 +2698,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2681,11 +2708,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2697,14 +2724,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2714,14 +2741,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2730,14 +2757,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2747,11 +2774,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2763,14 +2790,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2780,14 +2807,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2796,7 +2823,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2813,7 +2840,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2836,7 +2863,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2869,7 +2896,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2879,14 +2906,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2902,7 +2929,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2912,14 +2939,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2935,7 +2962,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2945,14 +2972,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2968,7 +2995,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2978,14 +3005,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2994,24 +3021,24 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3034,7 +3061,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3048,7 +3075,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3060,31 +3087,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3093,31 +3120,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3126,14 +3153,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3143,14 +3170,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>72</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3159,14 +3186,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3176,14 +3203,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3192,28 +3219,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>50</v>
@@ -3225,31 +3252,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3258,14 +3285,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3275,14 +3302,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3291,14 +3318,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3308,14 +3335,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3324,14 +3351,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3341,14 +3368,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3357,31 +3384,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3397,7 +3424,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3407,14 +3434,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3423,14 +3450,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3440,14 +3467,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3456,31 +3483,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3489,14 +3516,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3506,14 +3533,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3522,14 +3549,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3539,14 +3566,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3555,14 +3582,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3572,14 +3599,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3595,24 +3622,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3621,14 +3648,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3638,14 +3665,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3654,28 +3681,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3687,14 +3714,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3704,14 +3731,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3720,31 +3747,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3760,7 +3787,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3770,7 +3797,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3793,24 +3820,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3819,14 +3846,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3836,14 +3863,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3859,24 +3886,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3892,7 +3919,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3902,14 +3929,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3925,24 +3952,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3958,24 +3985,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>56</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3991,24 +4018,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4017,31 +4044,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>56</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4050,14 +4077,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4067,11 +4094,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4083,14 +4110,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4100,11 +4127,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4123,7 +4150,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4156,7 +4183,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4166,11 +4193,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4182,14 +4209,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4199,14 +4226,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4215,14 +4242,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4232,11 +4259,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4248,14 +4275,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4265,11 +4292,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4281,14 +4308,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4298,11 +4325,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4314,14 +4341,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4331,14 +4358,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4347,14 +4374,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4364,11 +4391,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4380,14 +4407,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>47</v>
+        <v>263</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4397,11 +4424,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4413,14 +4440,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>37</v>
+        <v>267</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4430,11 +4457,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4446,14 +4473,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4463,11 +4490,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>187</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4486,7 +4513,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4496,11 +4523,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4512,14 +4539,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4529,11 +4556,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>35</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4545,14 +4572,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4573,38 +4600,170 @@
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5435.2849999999999</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>277</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>278</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
         <v>279</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>13</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>242</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>280</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>38</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>13</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>39</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>282</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>283</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>13</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>39</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>284</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>285</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>13</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>14</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5620.0749999999998</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>286</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>287</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>288</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5083,10 +5242,30 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -869,7 +869,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 8:39 PM</t>
+    <t>Wednesday, 13 August, 2025 8:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -869,7 +869,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 8:40 PM</t>
+    <t>Wednesday, 13 August, 2025 8:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -663,6 +663,18 @@
   </si>
   <si>
     <t>25.7400</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>136.5000</t>
   </si>
   <si>
     <t>TARIVID 200MG 10 F.C. TAB.</t>
@@ -3787,7 +3799,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3797,11 +3809,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3813,28 +3825,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3846,28 +3858,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3879,31 +3891,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3912,31 +3924,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3945,14 +3957,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3962,14 +3974,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3978,14 +3990,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3995,11 +4007,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>94</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>29</v>
@@ -4011,14 +4023,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4028,14 +4040,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4044,14 +4056,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4061,14 +4073,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4077,31 +4089,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4110,14 +4122,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4127,11 +4139,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4143,14 +4155,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4160,11 +4172,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4176,14 +4188,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4197,7 +4209,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4209,14 +4221,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4226,11 +4238,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4242,14 +4254,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4259,11 +4271,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4275,14 +4287,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4292,11 +4304,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4308,14 +4320,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4325,11 +4337,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4341,14 +4353,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4358,14 +4370,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>260</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4391,14 +4403,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4407,14 +4419,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>263</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4424,11 +4436,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4457,11 +4469,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4473,14 +4485,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4490,11 +4502,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4506,14 +4518,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4523,11 +4535,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4539,7 +4551,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4556,11 +4568,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4572,14 +4584,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4589,11 +4601,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4605,14 +4617,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>279</v>
+        <v>41</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4622,11 +4634,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>242</v>
+        <v>14</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4638,14 +4650,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4655,11 +4667,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4671,14 +4683,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>283</v>
+        <v>38</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4692,7 +4704,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4704,14 +4716,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4721,49 +4733,82 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>288</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>289</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>13</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>14</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q104" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5620.0749999999998</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>286</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>287</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
-        <v>288</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5756.5749999999998</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>290</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>291</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>292</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5262,10 +5307,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -881,7 +881,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 8:41 PM</t>
+    <t>Wednesday, 13 August, 2025 8:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -299,6 +299,15 @@
     <t>61.3800</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -326,6 +335,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>DIACALDERM TOPICAL OINT. 20 GM</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
     <t>DIASTOP SUSP. 60ML</t>
   </si>
   <si>
@@ -362,6 +380,12 @@
     <t>76.00</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -578,6 +602,12 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -731,6 +761,18 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8407:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>WINZOXIB 90MG 20 TAB</t>
   </si>
   <si>
@@ -794,12 +836,15 @@
     <t>27.00</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>28.0000</t>
   </si>
   <si>
@@ -881,7 +926,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 8:54 PM</t>
+    <t>Wednesday, 13 August, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2281,7 +2326,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2291,14 +2336,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2307,14 +2352,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2324,14 +2369,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>104</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2340,14 +2385,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2357,14 +2402,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>107</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2380,7 +2425,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2390,14 +2435,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2406,7 +2451,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2423,14 +2468,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2439,14 +2484,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2456,14 +2501,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2493,7 +2538,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>29</v>
@@ -2505,14 +2550,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2522,14 +2567,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2538,14 +2583,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2555,14 +2600,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2578,7 +2623,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2588,11 +2633,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>29</v>
@@ -2604,14 +2649,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2621,14 +2666,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2637,14 +2682,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2654,11 +2699,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2670,14 +2715,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2687,11 +2732,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>29</v>
@@ -2703,14 +2748,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2720,14 +2765,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2736,14 +2781,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2753,11 +2798,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2776,7 +2821,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2793,7 +2838,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2809,7 +2854,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2819,14 +2864,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2835,14 +2880,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2852,11 +2897,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2868,14 +2913,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2885,11 +2930,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2901,7 +2946,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2918,14 +2963,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2941,7 +2986,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2988,10 +3033,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3000,14 +3045,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3017,14 +3062,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3040,7 +3085,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3050,11 +3095,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3066,14 +3111,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3083,14 +3128,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3099,14 +3144,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3116,11 +3161,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>29</v>
@@ -3132,24 +3177,24 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3172,7 +3217,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3182,14 +3227,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3205,7 +3250,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3222,7 +3267,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3255,7 +3300,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3271,7 +3316,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3281,11 +3326,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>29</v>
@@ -3297,14 +3342,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3314,14 +3359,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3330,31 +3375,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3363,14 +3408,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3384,10 +3429,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3396,28 +3441,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>29</v>
@@ -3429,14 +3474,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3446,14 +3491,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3462,14 +3507,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3479,14 +3524,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3495,28 +3540,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>29</v>
@@ -3528,14 +3573,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3545,11 +3590,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3561,14 +3606,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3578,11 +3623,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>29</v>
@@ -3594,7 +3639,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3611,14 +3656,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3627,28 +3672,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3660,14 +3705,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3677,11 +3722,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>29</v>
@@ -3693,14 +3738,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3710,11 +3755,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3726,7 +3771,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3739,18 +3784,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3759,14 +3804,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3776,11 +3821,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>29</v>
@@ -3792,14 +3837,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3809,11 +3854,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3825,7 +3870,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3842,14 +3887,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3865,24 +3910,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3891,14 +3936,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3908,11 +3953,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3924,31 +3969,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3957,28 +4002,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3990,14 +4035,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4007,14 +4052,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>95</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4023,28 +4068,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>85</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>29</v>
@@ -4056,14 +4101,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4073,14 +4118,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4089,14 +4134,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4106,11 +4151,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>94</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>29</v>
@@ -4122,31 +4167,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>35</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>134</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4155,31 +4200,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4188,31 +4233,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4221,31 +4266,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>56</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4254,14 +4299,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4271,11 +4316,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4287,14 +4332,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4304,11 +4349,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4320,7 +4365,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4337,11 +4382,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4353,14 +4398,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4370,11 +4415,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4386,14 +4431,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4403,14 +4448,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>264</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4419,14 +4464,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4436,11 +4481,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4452,14 +4497,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4469,11 +4514,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4485,14 +4530,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4502,11 +4547,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>258</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4518,14 +4563,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4535,14 +4580,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4551,7 +4596,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4568,14 +4613,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4584,7 +4629,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4601,11 +4646,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4624,7 +4669,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4634,11 +4679,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4650,14 +4695,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4667,11 +4712,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4683,14 +4728,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4700,11 +4745,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>39</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4716,14 +4761,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4733,11 +4778,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>39</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4749,14 +4794,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4766,49 +4811,214 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>296</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>41</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>13</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>14</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q105" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5756.5749999999998</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>290</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>291</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>292</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>297</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>298</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>13</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>260</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>299</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>38</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>13</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>39</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>301</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>302</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>13</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>39</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>303</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>304</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>13</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>14</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5945.415</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>305</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>306</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>307</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5312,10 +5522,35 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -926,7 +926,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 9:04 PM</t>
+    <t>Wednesday, 13 August, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -155,7 +155,19 @@
     <t>126.00</t>
   </si>
   <si>
-    <t>41.5800</t>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ARIPIPREX 20MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
   </si>
   <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
@@ -179,9 +191,6 @@
     <t>15.8400</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>BILASTOMED 20 MG 30 TABS</t>
   </si>
   <si>
@@ -290,6 +299,12 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>DAKTACORT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
     <t>DAPABLIX 10MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -632,6 +647,9 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>QUITAPEX 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
     <t>RELATROLENE 25 MG 20 CAPS.</t>
   </si>
   <si>
@@ -716,6 +734,15 @@
     <t>82.0000</t>
   </si>
   <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">VANCE  30 TAB</t>
   </si>
   <si>
@@ -809,9 +836,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -926,7 +950,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 9:11 PM</t>
+    <t>Wednesday, 13 August, 2025 9:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1831,7 +1855,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1848,7 +1872,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1857,14 +1881,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1897,7 +1921,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1907,14 +1931,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1930,7 +1954,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1947,7 +1971,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1963,7 +1987,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1973,14 +1997,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1989,14 +2013,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2006,14 +2030,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2043,10 +2067,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2055,14 +2079,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2079,7 +2103,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2095,7 +2119,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2105,7 +2129,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -2128,7 +2152,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2138,7 +2162,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2161,7 +2185,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2171,14 +2195,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2187,14 +2211,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2211,7 +2235,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2293,7 +2317,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2310,7 +2334,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2326,7 +2350,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2340,7 +2364,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2352,14 +2376,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2369,11 +2393,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>29</v>
@@ -2385,14 +2409,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2402,14 +2426,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2418,14 +2442,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2435,14 +2459,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2451,14 +2475,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2468,14 +2492,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2484,14 +2508,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2501,14 +2525,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2517,7 +2541,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2534,14 +2558,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2550,14 +2574,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2567,14 +2591,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2583,7 +2607,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2600,11 +2624,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>29</v>
@@ -2623,7 +2647,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2633,14 +2657,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2649,14 +2673,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2666,14 +2690,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2689,7 +2713,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2699,14 +2723,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2715,14 +2739,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2732,14 +2756,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2748,14 +2772,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2765,14 +2789,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2781,14 +2805,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2798,14 +2822,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2814,14 +2838,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2831,11 +2855,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>29</v>
@@ -2847,14 +2871,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2864,11 +2888,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2887,7 +2911,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2897,14 +2921,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2920,7 +2944,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2930,11 +2954,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2946,14 +2970,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2963,14 +2987,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2979,14 +3003,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2996,11 +3020,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3012,14 +3036,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3029,14 +3053,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3045,7 +3069,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3062,7 +3086,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -3118,7 +3142,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3128,14 +3152,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3151,7 +3175,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3161,14 +3185,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3184,7 +3208,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3194,14 +3218,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3217,7 +3241,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3227,14 +3251,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3243,14 +3267,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3260,14 +3284,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3283,13 +3307,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3297,7 +3321,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3309,14 +3333,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3326,7 +3350,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3349,13 +3373,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3382,24 +3406,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3408,14 +3432,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3425,14 +3449,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3441,31 +3465,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3474,14 +3498,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3491,14 +3515,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3514,7 +3538,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3531,7 +3555,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>198</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3540,31 +3564,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3580,7 +3604,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3597,7 +3621,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3606,28 +3630,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>29</v>
@@ -3646,7 +3670,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3656,14 +3680,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3672,14 +3696,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3689,14 +3713,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3705,14 +3729,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3722,11 +3746,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>29</v>
@@ -3738,14 +3762,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3755,14 +3779,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>99</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3771,28 +3795,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3804,14 +3828,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3821,11 +3845,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>29</v>
@@ -3837,14 +3861,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3854,11 +3878,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3870,7 +3894,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3883,18 +3907,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3903,14 +3927,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3920,11 +3944,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>29</v>
@@ -3936,14 +3960,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3953,11 +3977,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3969,7 +3993,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3986,14 +4010,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4002,31 +4026,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4035,14 +4059,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4052,11 +4076,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4068,31 +4092,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4108,7 +4132,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4118,14 +4142,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4147,18 +4171,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4167,14 +4191,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4184,14 +4208,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4207,24 +4231,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4250,14 +4274,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>169</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4266,14 +4290,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4283,11 +4307,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>99</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>29</v>
@@ -4299,31 +4323,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>142</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4332,31 +4356,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>137</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4365,31 +4389,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4398,31 +4422,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>49</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4431,14 +4455,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4448,11 +4472,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>35</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4464,14 +4488,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4481,11 +4505,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4537,7 +4561,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4547,11 +4571,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>97</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4570,7 +4594,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4580,14 +4604,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4596,14 +4620,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4613,14 +4637,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>279</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4629,7 +4653,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4646,11 +4670,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4669,7 +4693,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4679,11 +4703,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4695,14 +4719,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4712,14 +4736,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4728,14 +4752,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4745,14 +4769,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4761,7 +4785,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4778,11 +4802,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4794,14 +4818,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4811,11 +4835,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4827,14 +4851,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4844,11 +4868,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4860,14 +4884,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4877,11 +4901,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>206</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4893,14 +4917,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4910,7 +4934,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>39</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -4933,7 +4957,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4943,11 +4967,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>39</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4959,14 +4983,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4987,38 +5011,170 @@
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5945.415</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>305</v>
       </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
         <v>306</v>
       </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>13</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>269</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>307</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>38</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>13</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>39</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>309</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>310</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>13</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>39</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>311</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>312</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>13</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>14</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>6192.375</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>313</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>314</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>315</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5547,10 +5703,30 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>67.5000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -707,9 +719,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -785,7 +794,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>33.6600</t>
+    <t>50.4900</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -851,33 +860,30 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>ريكسونه رجالى</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>3.0000</t>
   </si>
   <si>
-    <t>ريكسونه رجالى</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -950,7 +956,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 9:17 PM</t>
+    <t>Wednesday, 13 August, 2025 9:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1806,7 +1812,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1815,14 +1821,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1832,14 +1838,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1855,7 +1861,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1865,14 +1871,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1905,7 +1911,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1914,14 +1920,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1954,7 +1960,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1964,14 +1970,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1980,14 +1986,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1997,14 +2003,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2013,14 +2019,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2037,7 +2043,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2067,10 +2073,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2079,14 +2085,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2096,14 +2102,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2119,7 +2125,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2129,14 +2135,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2145,14 +2151,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2162,11 +2168,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>29</v>
@@ -2178,14 +2184,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2195,11 +2201,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>29</v>
@@ -2211,14 +2217,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2235,7 +2241,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2251,7 +2257,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2261,14 +2267,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2277,7 +2283,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2294,11 +2300,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2310,7 +2316,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2327,11 +2333,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2343,14 +2349,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2360,11 +2366,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2376,14 +2382,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2393,14 +2399,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2409,14 +2415,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2426,14 +2432,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2442,14 +2448,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2466,7 +2472,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2499,7 +2505,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>112</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2508,14 +2514,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2532,7 +2538,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2541,7 +2547,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2558,11 +2564,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2574,14 +2580,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2591,14 +2597,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2607,14 +2613,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2624,11 +2630,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>29</v>
@@ -2640,7 +2646,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2657,14 +2663,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2673,7 +2679,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2690,14 +2696,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2706,14 +2712,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2723,11 +2729,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>29</v>
@@ -2739,14 +2745,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2756,14 +2762,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2772,14 +2778,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2789,14 +2795,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2805,14 +2811,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2822,14 +2828,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2838,14 +2844,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2855,11 +2861,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>29</v>
@@ -2871,14 +2877,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2888,14 +2894,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2904,14 +2910,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2921,14 +2927,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2937,14 +2943,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2954,14 +2960,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2970,14 +2976,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2987,11 +2993,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3003,14 +3009,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3020,11 +3026,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3036,14 +3042,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3053,14 +3059,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3069,7 +3075,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3086,14 +3092,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3102,14 +3108,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3119,11 +3125,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3135,14 +3141,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3152,11 +3158,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3168,14 +3174,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3185,11 +3191,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3201,7 +3207,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3218,14 +3224,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3234,14 +3240,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3251,14 +3257,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3267,14 +3273,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3284,14 +3290,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3300,14 +3306,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3317,11 +3323,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3333,14 +3339,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3350,14 +3356,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3366,31 +3372,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3399,31 +3405,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3432,14 +3438,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3449,14 +3455,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3465,31 +3471,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3498,20 +3504,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3522,7 +3528,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3538,7 +3544,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3548,11 +3554,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>29</v>
@@ -3564,14 +3570,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3581,14 +3587,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3597,14 +3603,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3614,14 +3620,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>203</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3637,24 +3643,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3663,31 +3669,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3696,14 +3702,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3713,14 +3719,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3729,14 +3735,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3746,11 +3752,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>29</v>
@@ -3762,14 +3768,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3779,11 +3785,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>29</v>
@@ -3795,14 +3801,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3812,14 +3818,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3828,14 +3834,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3845,14 +3851,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3868,7 +3874,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3878,14 +3884,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3894,28 +3900,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3927,31 +3933,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3960,14 +3966,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3977,14 +3983,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3993,7 +3999,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4010,14 +4016,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4026,14 +4032,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4043,14 +4049,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>162</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4059,14 +4065,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4076,14 +4082,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>39</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4092,14 +4098,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4132,7 +4138,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4149,7 +4155,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4165,24 +4171,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4191,28 +4197,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4224,31 +4230,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4257,31 +4263,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4297,7 +4303,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4307,14 +4313,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4323,14 +4329,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4340,11 +4346,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>103</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>29</v>
@@ -4363,7 +4369,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4373,14 +4379,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>137</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4389,14 +4395,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4406,14 +4412,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4422,14 +4428,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>49</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4446,7 +4452,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4462,24 +4468,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>35</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4488,14 +4494,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4505,11 +4511,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>35</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4528,7 +4534,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4538,11 +4544,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4561,7 +4567,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4571,11 +4577,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>82</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4587,14 +4593,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4604,11 +4610,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>101</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4620,14 +4626,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4637,11 +4643,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4653,14 +4659,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>280</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4670,11 +4676,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4693,7 +4699,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>274</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4707,10 +4713,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4726,7 +4732,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4740,10 +4746,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4769,14 +4775,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>287</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4785,7 +4791,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4802,14 +4808,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4825,7 +4831,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4835,11 +4841,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4851,14 +4857,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4868,11 +4874,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4891,7 +4897,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4901,11 +4907,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4917,14 +4923,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4934,11 +4940,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4950,7 +4956,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4967,11 +4973,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4983,14 +4989,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5000,11 +5006,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5016,14 +5022,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5033,11 +5039,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>269</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>211</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5056,7 +5062,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>38</v>
+        <v>308</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5066,11 +5072,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5089,7 +5095,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>310</v>
+        <v>42</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5099,11 +5105,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5132,49 +5138,82 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>313</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>314</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>13</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>14</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q114" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>6192.375</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>313</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
-        <v>314</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6234.6850000000004</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
         <v>315</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>316</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>317</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5723,10 +5762,15 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -956,7 +956,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 9:37 PM</t>
+    <t>Wednesday, 13 August, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -542,6 +542,21 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -956,7 +971,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 9:38 PM</t>
+    <t>Wednesday, 13 August, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3313,7 +3328,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3323,14 +3338,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3339,14 +3354,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3356,11 +3371,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3372,14 +3387,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3389,14 +3404,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3405,31 +3420,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3438,31 +3453,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3471,14 +3486,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3488,14 +3503,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3504,31 +3519,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3537,31 +3552,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3570,14 +3585,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3587,11 +3602,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>29</v>
@@ -3603,14 +3618,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3620,14 +3635,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3636,14 +3651,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3653,14 +3668,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>207</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3669,31 +3684,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3702,31 +3717,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3735,14 +3750,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3752,14 +3767,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3768,14 +3783,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3785,11 +3800,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>29</v>
@@ -3801,14 +3816,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3818,11 +3833,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>29</v>
@@ -3834,14 +3849,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3851,14 +3866,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>103</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3867,14 +3882,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3884,14 +3899,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3900,14 +3915,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3917,14 +3932,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3933,28 +3948,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3966,31 +3981,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3999,14 +4014,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4016,14 +4031,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4032,7 +4047,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4049,14 +4064,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4065,14 +4080,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4082,14 +4097,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4098,14 +4113,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>82</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4115,14 +4130,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4131,14 +4146,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4148,11 +4163,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4164,14 +4179,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4181,14 +4196,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4197,31 +4212,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4230,28 +4245,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4263,31 +4278,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4296,31 +4311,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4329,14 +4344,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4346,14 +4361,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>104</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4362,14 +4377,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4379,11 +4394,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>103</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>29</v>
@@ -4395,14 +4410,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4412,14 +4427,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>141</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>207</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4428,14 +4443,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4445,14 +4460,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4461,14 +4476,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>53</v>
+        <v>268</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4478,14 +4493,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4494,31 +4509,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>151</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4527,14 +4542,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4544,11 +4559,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>35</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4560,14 +4575,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4577,11 +4592,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4593,14 +4608,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4610,11 +4625,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>101</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>86</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4626,14 +4641,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4643,11 +4658,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>215</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4659,14 +4674,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4676,11 +4691,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4692,14 +4707,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4709,14 +4724,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>14</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4725,14 +4740,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>277</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4742,14 +4757,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4758,14 +4773,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>282</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4775,14 +4790,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4791,7 +4806,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4808,14 +4823,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>288</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4824,7 +4839,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4841,14 +4856,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4857,14 +4872,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4874,11 +4889,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4890,14 +4905,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4907,11 +4922,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4923,14 +4938,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>301</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4940,11 +4955,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4956,14 +4971,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4973,11 +4988,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4989,7 +5004,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5006,11 +5021,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5022,14 +5037,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5039,11 +5054,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>15</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5055,14 +5070,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>308</v>
+        <v>45</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5072,11 +5087,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>272</v>
+        <v>14</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5088,14 +5103,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>42</v>
+        <v>313</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5105,11 +5120,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>43</v>
+        <v>277</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5121,14 +5136,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>312</v>
+        <v>42</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5142,7 +5157,7 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5154,14 +5169,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5171,49 +5186,82 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>315</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>318</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>319</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>13</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>14</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q115" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6234.6850000000004</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>315</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>316</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>317</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>6294.6850000000004</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>320</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>321</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>322</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5767,10 +5815,15 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -413,6 +422,12 @@
     <t>6:1</t>
   </si>
   <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -431,6 +446,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -644,9 +668,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>69.0000</t>
-  </si>
-  <si>
     <t>0:3</t>
   </si>
   <si>
@@ -737,6 +758,12 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -890,7 +917,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16:0</t>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -926,6 +953,15 @@
     <t>190.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شاور جل مود </t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>قياس سكر</t>
   </si>
   <si>
@@ -962,16 +998,13 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>17:0</t>
-  </si>
-  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 9:48 PM</t>
+    <t>Wednesday, 13 August, 2025 9:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2173,7 +2206,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2190,7 +2223,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2206,7 +2239,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2216,7 +2249,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -2239,7 +2272,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2249,7 +2282,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -2272,7 +2305,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2282,14 +2315,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2298,14 +2331,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2322,7 +2355,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2404,7 +2437,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2418,7 +2451,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2430,14 +2463,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2447,14 +2480,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2470,7 +2503,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2487,7 +2520,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2503,7 +2536,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2513,14 +2546,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2529,14 +2562,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2546,14 +2579,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>116</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2562,14 +2595,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2579,14 +2612,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>119</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2635,7 +2668,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2645,14 +2678,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2661,14 +2694,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2678,11 +2711,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>29</v>
@@ -2718,7 +2751,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2748,10 +2781,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2760,14 +2793,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2777,11 +2810,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>29</v>
@@ -2793,14 +2826,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2810,14 +2843,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2833,7 +2866,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2847,10 +2880,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2859,14 +2892,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2876,14 +2909,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2892,14 +2925,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2909,14 +2942,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2925,7 +2958,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2942,14 +2975,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2958,14 +2991,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2975,11 +3008,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>29</v>
@@ -2991,14 +3024,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3008,14 +3041,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3024,14 +3057,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3041,11 +3074,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3064,7 +3097,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3081,7 +3114,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3097,7 +3130,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3107,14 +3140,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3123,14 +3156,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3140,11 +3173,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3156,14 +3189,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3173,11 +3206,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3189,7 +3222,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3206,14 +3239,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3229,7 +3262,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3276,10 +3309,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3288,14 +3321,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3305,14 +3338,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3328,7 +3361,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3338,14 +3371,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3354,14 +3387,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3371,14 +3404,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3387,14 +3420,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3404,14 +3437,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3420,14 +3453,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3444,7 +3477,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3453,24 +3486,24 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3493,7 +3526,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3503,14 +3536,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3526,7 +3559,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3543,7 +3576,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3576,7 +3609,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3592,7 +3625,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3602,11 +3635,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>29</v>
@@ -3618,14 +3651,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3635,14 +3668,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3651,31 +3684,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3684,14 +3717,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3708,7 +3741,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>212</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3717,28 +3750,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>29</v>
@@ -3750,14 +3783,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3767,14 +3800,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3790,7 +3823,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3804,10 +3837,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3816,28 +3849,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>29</v>
@@ -3856,7 +3889,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3866,14 +3899,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>103</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3882,14 +3915,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3899,14 +3932,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3915,14 +3948,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3932,7 +3965,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>124</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3955,7 +3988,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3965,14 +3998,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>106</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3981,28 +4014,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4014,14 +4047,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4054,7 +4087,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4093,18 +4126,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4113,14 +4146,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4130,7 +4163,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>39</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4153,7 +4186,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4163,11 +4196,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4179,7 +4212,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4196,14 +4229,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4212,14 +4245,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4229,11 +4262,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>39</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>29</v>
@@ -4245,31 +4278,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4278,14 +4311,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>29</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4295,11 +4328,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>110</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4311,31 +4344,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>92</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4351,7 +4384,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>29</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4361,14 +4394,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4390,18 +4423,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4410,14 +4443,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4427,14 +4460,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>113</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4450,24 +4483,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>212</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4493,14 +4526,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>181</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4509,14 +4542,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4526,11 +4559,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>29</v>
@@ -4542,31 +4575,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>151</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4575,31 +4608,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>85</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>149</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4608,31 +4641,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4641,31 +4674,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>53</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>101</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>86</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4681,7 +4714,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4691,11 +4724,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>35</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4724,11 +4757,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4740,7 +4773,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4757,14 +4790,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>176</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4773,14 +4806,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4790,11 +4823,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>104</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4806,14 +4839,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4823,14 +4856,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4839,14 +4872,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>294</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4856,14 +4889,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>269</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>293</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4872,7 +4905,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4889,14 +4922,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4905,14 +4938,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4926,7 +4959,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4938,14 +4971,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>301</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4955,14 +4988,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4971,14 +5004,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4988,14 +5021,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5004,7 +5037,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5021,11 +5054,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5037,14 +5070,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>306</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5054,11 +5087,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5070,14 +5103,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5087,11 +5120,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>14</v>
+        <v>296</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5103,14 +5136,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>313</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5120,11 +5153,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>220</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5143,7 +5176,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5153,11 +5186,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>43</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5169,14 +5202,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>317</v>
+        <v>22</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5186,11 +5219,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5202,14 +5235,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5219,49 +5252,214 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>323</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>45</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>13</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>14</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q116" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>6294.6850000000004</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>320</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>321</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
-        <v>322</v>
-      </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>324</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>325</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>13</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>286</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>326</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>42</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>13</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>43</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>328</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>302</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>13</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>43</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>329</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>330</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>13</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>14</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6616.5550000000003</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>331</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>332</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>333</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5820,10 +6018,35 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -1004,7 +1004,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 9:50 PM</t>
+    <t>Wednesday, 13 August, 2025 9:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -281,6 +281,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -338,12 +347,6 @@
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -626,6 +629,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>NACTALIA 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
     <t>NARJI VIALS</t>
   </si>
   <si>
@@ -983,6 +995,9 @@
     <t>كيس جمع بول</t>
   </si>
   <si>
+    <t>ماسك وجه</t>
+  </si>
+  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
@@ -1004,7 +1019,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 9:54 PM</t>
+    <t>Wednesday, 13 August, 2025 10:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2338,7 +2353,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2348,14 +2363,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2364,14 +2379,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2388,7 +2403,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2470,7 +2485,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2484,7 +2499,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2496,14 +2511,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2513,14 +2528,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2536,7 +2551,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2553,7 +2568,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2569,7 +2584,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2579,14 +2594,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2595,14 +2610,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2612,14 +2627,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>119</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2628,14 +2643,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2645,14 +2660,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2661,7 +2676,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2678,11 +2693,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2694,14 +2709,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2711,14 +2726,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2734,7 +2749,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2744,11 +2759,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>29</v>
@@ -2760,7 +2775,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2777,14 +2792,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2793,7 +2808,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2810,14 +2825,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2826,14 +2841,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2843,11 +2858,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>29</v>
@@ -2859,14 +2874,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2876,11 +2891,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>29</v>
@@ -2892,14 +2907,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2909,14 +2924,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2925,14 +2940,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2942,14 +2957,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2958,14 +2973,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2975,14 +2990,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2991,14 +3006,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3008,11 +3023,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>29</v>
@@ -3024,14 +3039,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3041,11 +3056,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>29</v>
@@ -3057,14 +3072,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3074,14 +3089,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3097,7 +3112,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3107,14 +3122,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3123,14 +3138,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3140,14 +3155,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3156,14 +3171,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3173,11 +3188,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3189,14 +3204,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3206,11 +3221,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3222,14 +3237,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3239,14 +3254,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3255,7 +3270,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3272,14 +3287,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3288,14 +3303,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3305,11 +3320,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3321,14 +3336,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3338,11 +3353,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3354,14 +3369,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3371,11 +3386,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3387,7 +3402,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3404,14 +3419,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3420,14 +3435,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3437,14 +3452,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3453,14 +3468,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3470,14 +3485,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>189</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3486,14 +3501,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3503,14 +3518,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3519,14 +3534,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3536,11 +3551,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3552,14 +3567,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3569,14 +3584,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3585,31 +3600,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3618,31 +3633,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3651,14 +3666,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3668,14 +3683,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3684,31 +3699,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3717,14 +3732,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3734,14 +3749,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3750,31 +3765,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3783,14 +3798,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3800,14 +3815,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3816,14 +3831,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3833,14 +3848,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>219</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3849,31 +3864,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3889,7 +3904,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3903,10 +3918,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>223</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3922,21 +3937,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>29</v>
@@ -3948,14 +3963,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3965,14 +3980,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3988,7 +4003,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3998,11 +4013,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>106</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>29</v>
@@ -4014,7 +4029,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4031,14 +4046,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>125</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4047,14 +4062,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4064,11 +4079,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>109</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>29</v>
@@ -4080,7 +4095,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4097,11 +4112,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4113,31 +4128,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4170,7 +4185,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4192,15 +4207,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4212,14 +4227,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4229,14 +4244,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4245,14 +4260,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4262,14 +4277,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4285,7 +4300,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4295,14 +4310,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4318,7 +4333,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4328,14 +4343,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4344,14 +4359,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4361,14 +4376,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4377,14 +4392,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4394,14 +4409,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4410,28 +4425,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>167</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4443,7 +4458,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4460,14 +4475,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4493,14 +4508,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4516,7 +4531,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>29</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4526,11 +4541,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4542,7 +4557,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4555,15 +4570,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>107</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>29</v>
@@ -4582,7 +4597,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4592,14 +4607,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>182</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4615,7 +4630,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4625,14 +4640,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>219</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4641,14 +4656,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>53</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4658,14 +4673,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4674,14 +4689,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4691,14 +4706,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>150</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>29</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4707,31 +4722,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>35</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>159</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4747,24 +4762,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>53</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4790,11 +4805,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>35</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4806,14 +4821,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,11 +4838,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>104</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>89</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4839,14 +4854,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4856,11 +4871,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4872,14 +4887,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4889,11 +4904,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4905,14 +4920,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4922,14 +4937,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4945,7 +4960,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4955,11 +4970,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4992,10 +5007,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5011,7 +5026,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5021,14 +5036,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>302</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5054,14 +5069,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5077,7 +5092,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5087,14 +5102,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>306</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5103,14 +5118,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5120,11 +5135,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5136,14 +5151,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5153,11 +5168,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5169,14 +5184,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>75</v>
+        <v>314</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5186,11 +5201,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5202,14 +5217,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5219,11 +5234,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5235,14 +5250,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5252,11 +5267,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5268,14 +5283,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5285,11 +5300,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>15</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5308,7 +5323,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5318,11 +5333,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>227</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5334,14 +5349,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5351,11 +5366,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>327</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5374,7 +5389,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>302</v>
+        <v>42</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5384,11 +5399,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>327</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5417,49 +5432,148 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
+        <v>231</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>331</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>42</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>13</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>43</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>332</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>333</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>306</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>13</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>43</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>332</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>334</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>335</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>13</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>14</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q121" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6616.5550000000003</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>331</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>332</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>333</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>6940.5550000000003</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>336</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>337</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>338</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6043,10 +6157,25 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -344,6 +344,15 @@
     <t>61.3800</t>
   </si>
   <si>
+    <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
@@ -674,6 +683,15 @@
     <t>2:3</t>
   </si>
   <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -704,9 +722,6 @@
     <t>PONOFORTE 500MG 20 CAPS.</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>QUITAPEX 100MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -881,9 +896,6 @@
     <t>37:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>بلسم صانسيلك كبير 350ملل</t>
   </si>
   <si>
@@ -929,97 +941,97 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>62:0</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 4</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاور جل مود </t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>كريم هيمالايا</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>كيس جمع بول</t>
+  </si>
+  <si>
+    <t>ماسك وجه</t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
     <t>17:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>62:0</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 4</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاور جل مود </t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>قياس سكر</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>كريم هيمالايا</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>كيس جمع بول</t>
-  </si>
-  <si>
-    <t>ماسك وجه</t>
-  </si>
-  <si>
-    <t>ماكينه حلاقه جليت فليكتور</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>محلول رينجر</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:02 PM</t>
+    <t>Wednesday, 13 August, 2025 10:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2584,7 +2596,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2594,11 +2606,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2610,14 +2622,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2627,14 +2639,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2643,14 +2655,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2660,14 +2672,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>120</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2676,14 +2688,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2693,14 +2705,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>123</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2749,7 +2761,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2759,14 +2771,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2775,14 +2787,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2792,11 +2804,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>29</v>
@@ -2832,7 +2844,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2862,10 +2874,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2874,14 +2886,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2891,11 +2903,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>29</v>
@@ -2907,14 +2919,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2924,11 +2936,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>29</v>
@@ -2940,14 +2952,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2957,14 +2969,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2980,7 +2992,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2997,7 +3009,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3013,7 +3025,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3030,7 +3042,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3046,7 +3058,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3079,7 +3091,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3089,7 +3101,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3112,7 +3124,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3122,14 +3134,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3138,14 +3150,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3155,14 +3167,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3178,7 +3190,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3188,14 +3200,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3204,14 +3216,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3221,7 +3233,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3244,7 +3256,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3254,7 +3266,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3277,7 +3289,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3294,7 +3306,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3327,7 +3339,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3343,7 +3355,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3376,7 +3388,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3386,11 +3398,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3402,14 +3414,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3419,7 +3431,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3456,10 +3468,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3468,14 +3480,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3485,14 +3497,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3518,14 +3530,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>190</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3534,14 +3546,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3551,14 +3563,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3567,14 +3579,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3584,11 +3596,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>59</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3600,14 +3612,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3617,14 +3629,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3640,13 +3652,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3657,7 +3669,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3673,24 +3685,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3699,14 +3711,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3716,14 +3728,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3739,7 +3751,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3772,13 +3784,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3789,7 +3801,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3805,24 +3817,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3831,14 +3843,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3871,7 +3883,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3881,14 +3893,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3897,14 +3909,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3914,14 +3926,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>223</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3937,24 +3949,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>82</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3963,14 +3975,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3980,14 +3992,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3996,28 +4008,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>82</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>29</v>
@@ -4029,14 +4041,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4046,14 +4058,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>125</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4062,14 +4074,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4079,11 +4091,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>29</v>
@@ -4095,7 +4107,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4112,14 +4124,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>70</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4128,14 +4140,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4145,11 +4157,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>29</v>
@@ -4161,7 +4173,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4178,11 +4190,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4194,31 +4206,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4227,7 +4239,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4244,14 +4256,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4260,7 +4272,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4273,15 +4285,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4293,14 +4305,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4310,14 +4322,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4333,7 +4345,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4343,14 +4355,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4359,14 +4371,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4376,14 +4388,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4392,14 +4404,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>85</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4409,14 +4421,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4425,14 +4437,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4442,14 +4454,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4458,14 +4470,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>29</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4475,14 +4487,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4491,24 +4503,24 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>168</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4541,14 +4553,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4557,7 +4569,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4574,14 +4586,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4590,14 +4602,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>29</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4607,7 +4619,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4636,15 +4648,15 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>29</v>
@@ -4656,14 +4668,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>53</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4673,14 +4685,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4689,14 +4701,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4706,14 +4718,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>223</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4729,7 +4741,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>53</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4739,14 +4751,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4755,14 +4767,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4772,14 +4784,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>153</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>29</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4788,31 +4800,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4821,20 +4833,20 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>53</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4842,10 +4854,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4854,7 +4866,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4871,11 +4883,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>35</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4887,14 +4899,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4904,11 +4916,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4920,14 +4932,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4937,11 +4949,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4953,14 +4965,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4970,11 +4982,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4986,14 +4998,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5003,14 +5015,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5026,7 +5038,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5036,11 +5048,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5073,10 +5085,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5092,7 +5104,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5102,14 +5114,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>306</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5135,14 +5147,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5158,7 +5170,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>310</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5168,14 +5180,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5184,14 +5196,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5201,11 +5213,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5217,14 +5229,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5234,11 +5246,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5250,14 +5262,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>75</v>
+        <v>318</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5267,11 +5279,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5283,14 +5295,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5300,11 +5312,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5316,14 +5328,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5333,11 +5345,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5349,14 +5361,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5366,11 +5378,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>14</v>
+        <v>326</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5389,7 +5401,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5399,11 +5411,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>125</v>
+        <v>329</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>126</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5415,14 +5427,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5432,11 +5444,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>290</v>
+        <v>14</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5448,7 +5460,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5465,11 +5477,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>332</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5488,7 +5500,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5498,11 +5510,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>332</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5521,7 +5533,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>335</v>
+        <v>42</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5531,49 +5543,115 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
+        <v>335</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>336</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>337</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>13</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>43</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>335</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>338</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>339</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>13</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>14</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q124" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>6940.5550000000003</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>336</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
-        <v>337</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
-        <v>338</v>
-      </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>7013.5550000000003</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>340</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>341</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>342</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6172,10 +6250,20 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -1031,7 +1031,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:09 PM</t>
+    <t>Wednesday, 13 August, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -314,10 +314,10 @@
     <t>COVERAM 5/5MG 15 TABS.</t>
   </si>
   <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
+    <t>247.00</t>
+  </si>
+  <si>
+    <t>247.0000</t>
   </si>
   <si>
     <t>CYANARO 1% EYE DROPS 2.5 ML</t>
@@ -356,6 +356,9 @@
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
+    <t>88.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -389,9 +392,6 @@
     <t>88.00</t>
   </si>
   <si>
-    <t>88.0000</t>
-  </si>
-  <si>
     <t>DIASTOP SUSP. 60ML</t>
   </si>
   <si>
@@ -455,7 +455,7 @@
     <t>46.00</t>
   </si>
   <si>
-    <t>46.0000</t>
+    <t>92.0000</t>
   </si>
   <si>
     <t>EXEEDOGAST 40 MG 20 CAPS.</t>
@@ -1031,7 +1031,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:11 PM</t>
+    <t>Wednesday, 13 August, 2025 10:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2068,7 +2068,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2464,7 +2464,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2629,7 +2629,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2643,10 +2643,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2655,14 +2655,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2672,11 +2672,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>29</v>
@@ -2688,14 +2688,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2705,14 +2705,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2738,11 +2738,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -3042,7 +3042,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>45</v>
@@ -3930,7 +3930,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>31</v>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -5621,7 +5621,7 @@
     </row>
     <row r="127" ht="25.5" customHeight="1">
       <c r="P127" s="13">
-        <v>7013.5550000000003</v>
+        <v>7225.5550000000003</v>
       </c>
       <c r="Q127" s="13"/>
     </row>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -1031,7 +1031,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:23 PM</t>
+    <t>Wednesday, 13 August, 2025 10:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -212,6 +212,15 @@
     <t>33.1650</t>
   </si>
   <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
@@ -1031,7 +1040,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:25 PM</t>
+    <t>Wednesday, 13 August, 2025 10:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2134,7 +2143,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2144,14 +2153,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2160,14 +2169,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2177,14 +2186,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2214,10 +2223,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2226,14 +2235,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2266,7 +2275,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2283,7 +2292,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2299,7 +2308,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2309,7 +2318,7 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -2332,7 +2341,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2342,7 +2351,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2382,7 +2391,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2398,7 +2407,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2408,14 +2417,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2424,14 +2433,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2448,7 +2457,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2464,7 +2473,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2497,7 +2506,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2530,7 +2539,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2544,7 +2553,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2556,14 +2565,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2573,14 +2582,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2596,7 +2605,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2613,7 +2622,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2639,14 +2648,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2655,14 +2664,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2672,14 +2681,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2688,14 +2697,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2705,14 +2714,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>124</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2721,14 +2730,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2738,14 +2747,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2754,7 +2763,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2771,11 +2780,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2794,7 +2803,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2804,14 +2813,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2820,14 +2829,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2837,11 +2846,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>29</v>
@@ -2877,7 +2886,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2907,10 +2916,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2919,14 +2928,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2936,11 +2945,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>29</v>
@@ -2952,14 +2961,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2969,11 +2978,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>29</v>
@@ -2985,14 +2994,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3002,14 +3011,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3025,7 +3034,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3042,7 +3051,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3058,7 +3067,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3075,7 +3084,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3091,7 +3100,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3124,7 +3133,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3134,7 +3143,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3157,7 +3166,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3167,14 +3176,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3183,14 +3192,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3200,14 +3209,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3223,7 +3232,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3233,14 +3242,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3249,14 +3258,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3266,7 +3275,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3289,7 +3298,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3299,7 +3308,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3322,7 +3331,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3339,7 +3348,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3372,7 +3381,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3388,7 +3397,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3421,7 +3430,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3431,11 +3440,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3447,14 +3456,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3464,7 +3473,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3501,10 +3510,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3513,14 +3522,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3530,14 +3539,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3563,14 +3572,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>193</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3579,14 +3588,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3596,14 +3605,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3612,14 +3621,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3629,11 +3638,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3645,14 +3654,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3662,14 +3671,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3685,13 +3694,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3702,7 +3711,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3718,24 +3727,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3744,14 +3753,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3761,14 +3770,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>85</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3784,7 +3793,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3817,13 +3826,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3834,7 +3843,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3850,24 +3859,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3876,14 +3885,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3916,7 +3925,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3926,14 +3935,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>123</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3942,14 +3951,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3959,14 +3968,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3982,7 +3991,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3996,10 +4005,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>229</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4015,24 +4024,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>205</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4041,31 +4050,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>85</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4081,7 +4090,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4095,10 +4104,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4107,14 +4116,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4124,11 +4133,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>29</v>
@@ -4140,14 +4149,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4157,11 +4166,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>29</v>
@@ -4173,14 +4182,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4190,14 +4199,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>112</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4206,14 +4215,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4227,10 +4236,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4239,14 +4248,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4263,7 +4272,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4279,21 +4288,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4305,31 +4314,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4345,7 +4354,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4362,7 +4371,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4388,14 +4397,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4404,14 +4413,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4421,14 +4430,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4437,14 +4446,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4454,11 +4463,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>29</v>
@@ -4470,14 +4479,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>168</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4487,14 +4496,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4503,14 +4512,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4543,7 +4552,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4560,7 +4569,7 @@
         <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4576,24 +4585,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4602,28 +4611,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4635,31 +4644,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4668,31 +4677,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4708,7 +4717,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4718,14 +4727,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>110</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4734,14 +4743,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4751,11 +4760,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>112</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>29</v>
@@ -4774,7 +4783,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4784,14 +4793,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>153</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>229</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4800,14 +4809,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>88</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4817,14 +4826,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>156</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4833,14 +4842,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>53</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4857,7 +4866,7 @@
         <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4873,24 +4882,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>35</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>163</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4899,14 +4908,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>294</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4916,11 +4925,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4932,14 +4941,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>297</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4949,11 +4958,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4972,7 +4981,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4982,11 +4991,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>107</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>89</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4998,14 +5007,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>302</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5015,11 +5024,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>226</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5031,14 +5040,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5048,11 +5057,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5064,14 +5073,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>305</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5081,14 +5090,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>14</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5097,14 +5106,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5114,14 +5123,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5130,14 +5139,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>302</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5147,14 +5156,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5163,7 +5172,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5180,14 +5189,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>273</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>310</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5196,7 +5205,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5213,14 +5222,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5229,14 +5238,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5246,11 +5255,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5262,14 +5271,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5279,11 +5288,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5295,14 +5304,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>321</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5312,11 +5321,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5335,7 +5344,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5368,7 +5377,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5434,7 +5443,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5444,11 +5453,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>14</v>
+        <v>332</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>15</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5460,14 +5469,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5477,11 +5486,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5493,14 +5502,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>310</v>
+        <v>42</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5510,11 +5519,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5526,14 +5535,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>42</v>
+        <v>313</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5543,11 +5552,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>335</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5559,14 +5568,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>337</v>
+        <v>42</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5580,7 +5589,7 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5592,14 +5601,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5609,49 +5618,82 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
+        <v>338</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>341</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>342</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>13</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>14</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q126" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>7225.5550000000003</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>340</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>341</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>342</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>7305.5550000000003</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>343</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>344</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>345</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6260,10 +6302,15 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -1040,7 +1040,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:31 PM</t>
+    <t>Wednesday, 13 August, 2025 10:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -452,10 +452,22 @@
     <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>96.00</t>
   </si>
   <si>
-    <t>0.0000</t>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
   </si>
   <si>
     <t>EUTHYROX 50MCG 50 TAB</t>
@@ -548,6 +560,21 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>GLYCERIN SOAP</t>
   </si>
   <si>
@@ -803,9 +830,6 @@
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>136.50</t>
   </si>
   <si>
@@ -1040,7 +1064,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:32 PM</t>
+    <t>Wednesday, 13 August, 2025 10:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3034,7 +3058,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3044,14 +3068,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3060,14 +3084,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3077,14 +3101,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3093,14 +3117,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3110,14 +3134,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3126,14 +3150,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3143,11 +3167,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>29</v>
@@ -3159,14 +3183,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3176,11 +3200,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>29</v>
@@ -3192,14 +3216,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3209,14 +3233,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3225,14 +3249,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3242,14 +3266,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3258,14 +3282,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3275,14 +3299,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3291,14 +3315,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3308,11 +3332,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3324,14 +3348,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3341,11 +3365,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3357,14 +3381,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3374,14 +3398,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3390,7 +3414,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3407,14 +3431,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3423,14 +3447,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3440,11 +3464,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3456,14 +3480,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3473,14 +3497,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3489,14 +3513,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3506,14 +3530,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3522,7 +3546,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3539,14 +3563,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3555,14 +3579,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3572,14 +3596,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3588,14 +3612,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3612,7 +3636,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3621,14 +3645,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3638,14 +3662,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3654,14 +3678,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3671,14 +3695,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3694,7 +3718,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3704,14 +3728,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3720,28 +3744,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3753,14 +3777,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3770,14 +3794,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3786,14 +3810,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3803,14 +3827,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3819,28 +3843,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3852,31 +3876,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3892,7 +3916,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3902,14 +3926,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3918,7 +3942,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3935,14 +3959,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3951,31 +3975,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3991,7 +4015,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4001,14 +4025,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4017,14 +4041,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4034,14 +4058,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>83</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>232</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4050,31 +4074,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4083,14 +4107,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4100,11 +4124,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4116,14 +4140,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4133,14 +4157,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4149,28 +4173,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>29</v>
@@ -4182,14 +4206,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4199,14 +4223,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4215,14 +4239,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4232,14 +4256,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4248,14 +4272,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4265,11 +4289,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>29</v>
@@ -4281,14 +4305,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4298,14 +4322,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>112</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4321,21 +4345,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4347,14 +4371,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4364,11 +4388,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>29</v>
@@ -4380,14 +4404,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4397,11 +4421,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4413,7 +4437,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4426,18 +4450,18 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4446,14 +4470,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4463,11 +4487,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>29</v>
@@ -4479,14 +4503,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4496,14 +4520,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4512,14 +4536,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4529,14 +4553,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>181</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4545,14 +4569,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4562,14 +4586,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4585,7 +4609,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4595,11 +4619,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>29</v>
@@ -4611,24 +4635,24 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4651,7 +4675,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4661,11 +4685,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4677,28 +4701,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>101</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>29</v>
@@ -4710,28 +4734,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4743,14 +4767,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4760,14 +4784,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>113</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4776,28 +4800,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>101</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>29</v>
@@ -4809,14 +4833,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>88</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4826,14 +4850,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>232</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4842,14 +4866,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4859,14 +4883,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>112</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4875,7 +4899,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4892,11 +4916,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>29</v>
@@ -4908,31 +4932,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>166</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4954,18 +4978,18 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>228</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4974,31 +4998,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5007,14 +5031,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>302</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5024,11 +5048,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5040,14 +5064,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>305</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5057,11 +5081,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5073,14 +5097,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>305</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5090,11 +5114,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5106,14 +5130,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5123,14 +5147,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>110</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5139,14 +5163,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>302</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5156,11 +5180,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>237</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5172,14 +5196,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5189,14 +5213,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>311</v>
+        <v>14</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5205,7 +5229,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5222,14 +5246,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>313</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5238,14 +5262,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5255,11 +5279,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5271,14 +5295,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>317</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5288,14 +5312,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5311,7 +5335,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>22</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5321,14 +5345,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>321</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5344,7 +5368,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5354,11 +5378,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5370,14 +5394,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5410,7 +5434,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>22</v>
+        <v>329</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5420,11 +5444,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5436,14 +5460,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5453,11 +5477,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5469,14 +5493,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5486,11 +5510,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>14</v>
+        <v>334</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>15</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5502,14 +5526,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5519,11 +5543,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>131</v>
+        <v>337</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>132</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5535,14 +5559,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>313</v>
+        <v>22</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5552,11 +5576,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>228</v>
+        <v>340</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>229</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5568,14 +5592,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5585,11 +5609,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5601,14 +5625,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>340</v>
+        <v>42</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5618,11 +5642,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>338</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5634,14 +5658,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5651,49 +5675,148 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>345</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>42</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>13</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>43</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>346</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>347</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>348</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>13</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>43</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>346</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>349</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>350</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>13</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>14</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q127" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>7305.5550000000003</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>343</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
-        <v>344</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
-        <v>345</v>
-      </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>7483.1350000000002</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>351</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>352</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>353</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6307,10 +6430,25 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -1064,7 +1064,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:34 PM</t>
+    <t>Wednesday, 13 August, 2025 10:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -551,6 +551,18 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -761,6 +773,18 @@
     <t>QUITAPEX 100MG 30 F.C. TAB.</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>13.8600</t>
+  </si>
+  <si>
     <t>RELATROLENE 25 MG 20 CAPS.</t>
   </si>
   <si>
@@ -836,6 +860,15 @@
     <t>136.5000</t>
   </si>
   <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>TARIVID 200MG 10 F.C. TAB.</t>
   </si>
   <si>
@@ -902,13 +935,16 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8407:0</t>
+    <t>8405:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
   </si>
   <si>
     <t>WINZOXIB 90MG 20 TAB</t>
@@ -932,18 +968,9 @@
     <t>بلسم صانسيلك كبير 350ملل</t>
   </si>
   <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
     <t>جل صبار برطمان</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -1025,9 +1052,6 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>كريم هيمالايا</t>
   </si>
   <si>
@@ -1064,7 +1088,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:35 PM</t>
+    <t>Wednesday, 13 August, 2025 10:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3454,7 +3478,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3464,11 +3488,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3480,14 +3504,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3497,14 +3521,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3513,14 +3537,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3530,11 +3554,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>29</v>
@@ -3546,14 +3570,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3563,14 +3587,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3579,14 +3603,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3596,11 +3620,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3612,14 +3636,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3629,11 +3653,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3645,7 +3669,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3662,14 +3686,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3678,14 +3702,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3695,14 +3719,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3711,14 +3735,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3728,14 +3752,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>48</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>205</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3744,14 +3768,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3761,14 +3785,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3777,14 +3801,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3794,11 +3818,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3810,14 +3834,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3827,14 +3851,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3843,31 +3867,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3876,31 +3900,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3909,14 +3933,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3926,14 +3950,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>85</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3942,14 +3966,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3959,11 +3983,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3975,31 +3999,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4008,20 +4032,20 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -4032,7 +4056,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4048,7 +4072,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4058,11 +4082,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>29</v>
@@ -4074,14 +4098,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4091,14 +4115,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4107,14 +4131,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4124,14 +4148,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4140,14 +4164,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4157,14 +4181,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>241</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4173,31 +4197,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4206,31 +4230,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>85</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4239,14 +4263,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4256,14 +4280,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4272,14 +4296,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4289,11 +4313,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>29</v>
@@ -4305,14 +4329,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4322,11 +4346,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>113</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>29</v>
@@ -4338,14 +4362,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4355,14 +4379,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>112</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4371,14 +4395,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4388,14 +4412,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4404,7 +4428,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4421,11 +4445,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4437,31 +4461,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>15</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4470,7 +4494,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4487,14 +4511,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4503,7 +4527,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4516,15 +4540,15 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4536,14 +4560,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4553,14 +4577,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4569,14 +4593,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4586,14 +4610,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4602,14 +4626,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4619,14 +4643,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4635,14 +4659,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4652,14 +4676,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>39</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4668,14 +4692,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4685,14 +4709,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4701,14 +4725,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4718,14 +4742,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4734,28 +4758,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4767,14 +4791,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4784,11 +4808,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>121</v>
+        <v>287</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4800,28 +4824,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>101</v>
+        <v>290</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>29</v>
@@ -4833,28 +4857,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4866,14 +4890,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4883,14 +4907,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>113</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4899,28 +4923,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>101</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>29</v>
@@ -4932,14 +4956,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>88</v>
+        <v>299</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4949,14 +4973,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>241</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4965,14 +4989,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>297</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4982,14 +5006,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>112</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4998,7 +5022,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5015,11 +5039,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>29</v>
@@ -5031,31 +5055,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>170</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5064,31 +5088,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>238</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5097,31 +5121,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5130,14 +5154,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>310</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5147,11 +5171,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5163,14 +5187,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>317</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5180,11 +5204,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5196,14 +5220,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>313</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5213,11 +5237,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>14</v>
+        <v>284</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>15</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5229,14 +5253,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>311</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5246,14 +5270,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>110</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5262,14 +5286,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>310</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5279,11 +5303,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5295,14 +5319,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5312,14 +5336,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5328,7 +5352,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5345,14 +5369,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>284</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>321</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5361,14 +5385,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>22</v>
+        <v>311</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5378,11 +5402,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>323</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5394,14 +5418,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5411,14 +5435,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>327</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5427,14 +5451,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>329</v>
+        <v>22</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5444,14 +5468,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5460,14 +5484,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5477,7 +5501,7 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
@@ -5500,7 +5524,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5510,11 +5534,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5526,14 +5550,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>22</v>
+        <v>338</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5543,11 +5567,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5566,7 +5590,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5599,7 +5623,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5609,11 +5633,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5625,14 +5649,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5642,11 +5666,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>131</v>
+        <v>346</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>132</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5658,14 +5682,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>321</v>
+        <v>22</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5675,11 +5699,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>237</v>
+        <v>348</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>238</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5691,14 +5715,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5708,11 +5732,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>346</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5724,14 +5748,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5741,11 +5765,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>346</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5757,14 +5781,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5774,49 +5798,148 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>353</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>42</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>13</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>43</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>354</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>355</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>356</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>13</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>43</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>354</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>357</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>358</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>13</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>14</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q130" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>7483.1350000000002</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>351</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>352</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
-        <v>353</v>
-      </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>7674.9949999999999</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>359</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>360</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>361</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6445,10 +6568,25 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -1088,7 +1088,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:38 PM</t>
+    <t>Wednesday, 13 August, 2025 10:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -302,13 +302,13 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>15:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>99.0000</t>
+    <t>132.0000</t>
   </si>
   <si>
     <t>CONTRA ANTIDANDRUFF SHAMPOO 150 ML</t>
@@ -320,6 +320,18 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>COVERAM 5/5MG 15 TABS.</t>
   </si>
   <si>
@@ -383,240 +395,252 @@
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
-    <t>5:3</t>
+    <t>5:2</t>
   </si>
   <si>
     <t>65.00</t>
   </si>
   <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>DIACALDERM TOPICAL OINT. 20 GM</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>DIASTOP SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>DIOSED-C 20 TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>EUTHYROX 50MCG 50 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>FLEBOTON 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FORTUM 1 GM VIAL.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>212.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>GLYCERIN SOAP</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>HEPATICUM 10MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY NUTRADEFENSE PLUS 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>329.00</t>
+  </si>
+  <si>
+    <t>329.0000</t>
+  </si>
+  <si>
+    <t>ITRAPEX 100MG 4 CAPS.</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
     <t>52.0000</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>DIACALDERM TOPICAL OINT. 20 GM</t>
-  </si>
-  <si>
-    <t>88.00</t>
-  </si>
-  <si>
-    <t>DIASTOP SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>DIOSED-C 20 TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>EUTHYROX 50MCG 50 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FERRODUONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>FLEBOTON 3 AMP.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>55.4400</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>GLYCERIN SOAP</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>HEPATICUM 10MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY NUTRADEFENSE PLUS 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>329.00</t>
-  </si>
-  <si>
-    <t>329.0000</t>
-  </si>
-  <si>
-    <t>ITRAPEX 100MG 4 CAPS.</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -770,6 +794,18 @@
     <t>PONOFORTE 500MG 20 CAPS.</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
     <t>QUITAPEX 100MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -779,9 +815,6 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>42.00</t>
-  </si>
-  <si>
     <t>13.8600</t>
   </si>
   <si>
@@ -881,9 +914,6 @@
     <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
   </si>
   <si>
-    <t>106.00</t>
-  </si>
-  <si>
     <t>53.0000</t>
   </si>
   <si>
@@ -908,9 +938,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>26.0000</t>
   </si>
   <si>
@@ -1001,75 +1028,78 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>62:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سيتي بيبي رقم 4</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاور جل مود </t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>كريم هيمالايا</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>كيس جمع بول</t>
+  </si>
+  <si>
+    <t>ماسك وجه</t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
     <t>18:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>سرنجات دواء 5 سم</t>
-  </si>
-  <si>
-    <t>62:0</t>
-  </si>
-  <si>
-    <t>سيتي بيبي رقم 4</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاور جل مود </t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>قياس سكر</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>كريم هيمالايا</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>كيس جمع بول</t>
-  </si>
-  <si>
-    <t>ماسك وجه</t>
-  </si>
-  <si>
-    <t>ماكينه حلاقه جليت فليكتور</t>
-  </si>
-  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -1088,7 +1118,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:51 PM</t>
+    <t>Wednesday, 13 August, 2025 10:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2505,7 +2535,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2554,7 +2584,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2564,14 +2594,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2580,14 +2610,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2597,11 +2627,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2613,14 +2643,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2630,11 +2660,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2646,14 +2676,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2663,14 +2693,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2679,14 +2709,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2696,14 +2726,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2712,7 +2742,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2729,14 +2759,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2745,14 +2775,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2762,14 +2792,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2802,7 +2832,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>127</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2811,14 +2841,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2832,7 +2862,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2844,7 +2874,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2861,11 +2891,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2884,7 +2914,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2894,14 +2924,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2910,14 +2940,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2927,11 +2957,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>29</v>
@@ -2967,7 +2997,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2997,10 +3027,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3009,14 +3039,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3026,11 +3056,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>29</v>
@@ -3042,14 +3072,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3059,11 +3089,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -3075,14 +3105,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3096,7 +3126,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>29</v>
@@ -3108,14 +3138,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3148,7 +3178,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3165,7 +3195,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3181,7 +3211,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3198,7 +3228,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3214,7 +3244,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3247,7 +3277,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3257,7 +3287,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3280,7 +3310,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3290,14 +3320,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3306,14 +3336,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3323,14 +3353,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3346,7 +3376,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3356,14 +3386,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3372,14 +3402,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3389,7 +3419,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3412,7 +3442,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3422,7 +3452,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3445,7 +3475,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3462,7 +3492,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3478,7 +3508,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3488,14 +3518,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3504,14 +3534,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3528,7 +3558,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3544,7 +3574,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3554,14 +3584,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3570,14 +3600,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3587,14 +3617,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3603,14 +3633,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3620,14 +3650,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3636,14 +3666,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3653,14 +3683,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3669,7 +3699,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3686,11 +3716,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3702,14 +3732,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3719,14 +3749,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3735,14 +3765,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3752,14 +3782,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3768,14 +3798,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3785,14 +3815,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>209</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3808,7 +3838,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3818,14 +3848,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3834,14 +3864,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3851,14 +3881,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3867,14 +3897,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3884,14 +3914,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>59</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3900,28 +3930,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3933,14 +3963,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3950,11 +3980,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>29</v>
@@ -3966,28 +3996,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3999,14 +4029,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4016,14 +4046,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>85</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4032,31 +4062,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4065,14 +4095,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4082,14 +4112,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4098,31 +4128,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4131,14 +4161,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4148,14 +4178,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4164,14 +4194,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4181,14 +4211,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4197,14 +4227,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4214,14 +4244,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>245</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4230,31 +4260,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>85</v>
+        <v>249</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4263,14 +4293,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>247</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4280,14 +4310,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4296,28 +4326,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>85</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>29</v>
@@ -4329,14 +4359,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4346,14 +4376,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4362,14 +4392,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4379,11 +4409,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>112</v>
+        <v>259</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>29</v>
@@ -4395,14 +4425,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4412,14 +4442,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4428,14 +4458,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4445,14 +4475,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>73</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4461,14 +4491,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>261</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4478,11 +4508,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>116</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>29</v>
@@ -4494,14 +4524,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4511,14 +4541,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>105</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4527,28 +4557,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4560,14 +4590,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4577,11 +4607,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>29</v>
@@ -4593,14 +4623,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4610,11 +4640,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4626,7 +4656,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4639,18 +4669,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4659,14 +4689,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4676,11 +4706,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>29</v>
@@ -4692,14 +4722,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4709,14 +4739,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4725,14 +4755,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4742,14 +4772,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>192</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4758,14 +4788,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4775,14 +4805,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>39</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4791,14 +4821,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4808,14 +4838,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4824,14 +4854,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4841,14 +4871,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4857,28 +4887,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4890,14 +4920,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4907,11 +4937,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>121</v>
+        <v>298</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4923,28 +4953,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>29</v>
@@ -4956,28 +4986,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4989,14 +5019,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5006,14 +5036,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>113</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5022,28 +5052,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>101</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>29</v>
@@ -5055,14 +5085,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5072,14 +5102,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>245</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5088,14 +5118,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>308</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5105,14 +5135,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>309</v>
+        <v>116</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>310</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>311</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5121,7 +5151,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5138,11 +5168,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>29</v>
@@ -5154,31 +5184,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>170</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>253</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5200,18 +5230,18 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>241</v>
+        <v>318</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>242</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>320</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5220,31 +5250,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5253,14 +5283,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>311</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5270,11 +5300,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5286,14 +5316,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5303,11 +5333,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5319,14 +5349,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>322</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5336,11 +5366,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5352,14 +5382,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5369,14 +5399,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>324</v>
+        <v>114</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>204</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5385,14 +5415,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5402,11 +5432,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>326</v>
+        <v>249</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5418,14 +5448,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>22</v>
+        <v>331</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5435,14 +5465,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5451,7 +5481,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5468,14 +5498,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>295</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>330</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5484,14 +5514,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5501,11 +5531,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>332</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5517,14 +5547,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>334</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5534,14 +5564,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>336</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5550,14 +5580,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>338</v>
+        <v>22</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5567,14 +5597,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5583,14 +5613,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5600,14 +5630,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
         <v>341</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5623,7 +5653,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>78</v>
+        <v>339</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5656,7 +5686,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>22</v>
+        <v>346</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5666,11 +5696,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5682,14 +5712,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5699,11 +5729,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5715,14 +5745,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5732,11 +5762,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>14</v>
+        <v>352</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5748,14 +5778,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5765,11 +5795,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>131</v>
+        <v>355</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>132</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5781,14 +5811,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>330</v>
+        <v>22</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5798,11 +5828,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>241</v>
+        <v>357</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>242</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5814,14 +5844,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5831,11 +5861,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>354</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5847,14 +5877,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>356</v>
+        <v>42</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5864,11 +5894,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>354</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5880,14 +5910,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5897,49 +5927,148 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>363</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>42</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>13</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>43</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>364</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>365</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>366</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>13</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>43</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>364</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>367</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>368</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>13</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>14</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q133" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>7674.9949999999999</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>359</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
-        <v>360</v>
-      </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
-        <v>361</v>
-      </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>8159.9949999999999</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
+        <v>369</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>370</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>371</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6583,10 +6712,25 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -212,6 +212,15 @@
     <t>33.1650</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
   </si>
   <si>
@@ -698,9 +707,6 @@
     <t>MILGA 40 TABLETS</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -1118,7 +1124,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 10:56 PM</t>
+    <t>Wednesday, 13 August, 2025 11:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2221,7 +2227,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2254,7 +2260,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2264,14 +2270,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2280,14 +2286,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2297,14 +2303,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2334,10 +2340,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2346,14 +2352,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2386,7 +2392,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2403,7 +2409,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2419,7 +2425,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2429,7 +2435,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2452,7 +2458,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2462,7 +2468,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -2502,7 +2508,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2518,7 +2524,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2528,14 +2534,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2544,14 +2550,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2568,7 +2574,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2584,7 +2590,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2594,14 +2600,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2610,14 +2616,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2634,7 +2640,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2650,7 +2656,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2683,7 +2689,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2697,7 +2703,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2709,14 +2715,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2726,14 +2732,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2749,7 +2755,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2766,7 +2772,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2792,14 +2798,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2808,14 +2814,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2825,14 +2831,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2841,14 +2847,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2858,14 +2864,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2874,14 +2880,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2895,7 +2901,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2907,7 +2913,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2924,11 +2930,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2947,7 +2953,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2957,14 +2963,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2973,14 +2979,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2990,11 +2996,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>29</v>
@@ -3030,7 +3036,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3060,10 +3066,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3072,14 +3078,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3089,11 +3095,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -3105,14 +3111,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3122,11 +3128,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>29</v>
@@ -3138,14 +3144,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3159,7 +3165,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>29</v>
@@ -3171,14 +3177,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3211,7 +3217,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3228,7 +3234,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3244,7 +3250,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3261,7 +3267,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3277,7 +3283,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3310,7 +3316,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3320,7 +3326,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3343,7 +3349,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3353,14 +3359,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3369,14 +3375,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3386,14 +3392,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3409,7 +3415,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3419,14 +3425,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3435,14 +3441,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3452,7 +3458,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3475,7 +3481,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3485,7 +3491,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3508,7 +3514,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3525,7 +3531,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3541,7 +3547,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3551,14 +3557,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3567,14 +3573,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3584,14 +3590,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3600,14 +3606,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3640,7 +3646,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3650,14 +3656,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3666,14 +3672,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3683,7 +3689,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3706,7 +3712,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3723,7 +3729,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3739,7 +3745,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3749,11 +3755,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3765,14 +3771,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3782,7 +3788,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3822,7 +3828,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3838,7 +3844,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3848,14 +3854,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3881,14 +3887,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>48</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>217</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3897,14 +3903,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3914,14 +3920,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3930,14 +3936,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3947,11 +3953,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3963,14 +3969,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3980,14 +3986,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4003,13 +4009,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -4020,7 +4026,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4036,24 +4042,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4062,14 +4068,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4079,14 +4085,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>88</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4095,14 +4101,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4112,11 +4118,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4128,31 +4134,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4161,31 +4167,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4194,14 +4200,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4211,11 +4217,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>29</v>
@@ -4227,14 +4233,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4244,14 +4250,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>32</v>
+        <v>246</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4267,7 +4273,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4277,14 +4283,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4293,14 +4299,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4310,14 +4316,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>253</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4326,31 +4332,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>229</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4359,31 +4365,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>256</v>
+        <v>88</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>257</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4392,14 +4398,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4409,14 +4415,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>176</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4432,7 +4438,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4442,11 +4448,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>29</v>
@@ -4458,14 +4464,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4475,14 +4481,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4491,14 +4497,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4508,14 +4514,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>116</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>117</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4524,14 +4530,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4541,14 +4547,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4557,14 +4563,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4574,14 +4580,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>73</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4597,7 +4603,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4607,14 +4613,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4623,14 +4629,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4640,14 +4646,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4656,28 +4662,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>15</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4689,31 +4695,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>281</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4722,14 +4728,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4739,14 +4745,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4755,7 +4761,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4772,14 +4778,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>286</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4795,7 +4801,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4805,14 +4811,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>288</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4828,7 +4834,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4838,7 +4844,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>231</v>
+        <v>39</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4861,7 +4867,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4871,14 +4877,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4887,14 +4893,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4904,11 +4910,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4920,14 +4926,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4937,11 +4943,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4953,14 +4959,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4970,14 +4976,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>301</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4993,24 +4999,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>303</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5026,17 +5032,17 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -5059,24 +5065,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>307</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5092,24 +5098,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>309</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5125,7 +5131,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5135,14 +5141,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>117</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5151,14 +5157,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5168,11 +5174,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>313</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>29</v>
@@ -5184,14 +5190,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5201,14 +5207,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>163</v>
+        <v>314</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>315</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>253</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5224,7 +5230,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>317</v>
+        <v>91</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5234,14 +5240,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>320</v>
+        <v>255</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5250,14 +5256,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>53</v>
+        <v>319</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5267,14 +5273,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>29</v>
+        <v>322</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5283,31 +5289,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>35</v>
+        <v>324</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>173</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5316,14 +5322,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>326</v>
+        <v>22</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5333,11 +5339,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5356,7 +5362,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>328</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5366,11 +5372,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>296</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5382,14 +5388,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>320</v>
+        <v>22</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5399,11 +5405,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>114</v>
+        <v>297</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>92</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5415,14 +5421,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5432,11 +5438,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>249</v>
+        <v>117</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5448,14 +5454,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>331</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5465,11 +5471,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5488,7 +5494,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>22</v>
+        <v>333</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5498,14 +5504,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>333</v>
+        <v>14</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5521,7 +5527,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>320</v>
+        <v>22</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5535,10 +5541,10 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5554,7 +5560,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5568,10 +5574,10 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5597,14 +5603,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>339</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5630,14 +5636,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q124" s="12">
         <v>341</v>
-      </c>
-      <c t="s" r="Q124" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5653,7 +5659,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>339</v>
+        <v>22</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5663,14 +5669,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5679,14 +5685,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5696,11 +5702,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5712,14 +5718,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>348</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5729,11 +5735,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5745,14 +5751,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5762,11 +5768,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5778,14 +5784,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5795,11 +5801,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5832,7 +5838,7 @@
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5844,14 +5850,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5861,11 +5867,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>14</v>
+        <v>359</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5877,14 +5883,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5894,11 +5900,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5910,14 +5916,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>362</v>
+        <v>42</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5927,11 +5933,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>250</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5950,7 +5956,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>42</v>
+        <v>364</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5960,11 +5966,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>364</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5983,7 +5989,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>366</v>
+        <v>42</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5997,7 +6003,7 @@
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6026,49 +6032,82 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
+        <v>366</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>369</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>370</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>13</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>14</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q136" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" ht="25.5" customHeight="1">
-      <c r="P137" s="13">
-        <v>8159.9949999999999</v>
-      </c>
-      <c r="Q137" s="13"/>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
-      <c t="s" r="A138" s="14">
-        <v>369</v>
-      </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c t="s" r="G138" s="15">
-        <v>370</v>
-      </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="16"/>
-      <c t="s" r="K138" s="17">
+      <c t="s" r="Q137" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>8186.9949999999999</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
         <v>371</v>
       </c>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>372</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>373</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="662">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6727,10 +6766,15 @@
     <mergeCell ref="H136:K136"/>
     <mergeCell ref="L136:M136"/>
     <mergeCell ref="N136:O136"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="K138:Q138"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -1124,7 +1124,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Wednesday, 13 August, 2025 11:02 PM</t>
+    <t>Wednesday, 13 August, 2025 11:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-13_00-00.xlsx
+++ b/DaySale_2025-08-13_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
   </si>
   <si>
@@ -98,9 +113,6 @@
     <t>30.6900</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMRI-K 10MG/ML 5 AMP. I.M.</t>
   </si>
   <si>
@@ -185,555 +197,552 @@
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>18.2400</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>BILASTOMED 20 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>100.50</t>
+  </si>
+  <si>
+    <t>33.1650</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>CONTRA ANTIDANDRUFF SHAMPOO 150 ML</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>COVERAM 5/5MG 15 TABS.</t>
+  </si>
+  <si>
+    <t>247.00</t>
+  </si>
+  <si>
+    <t>247.0000</t>
+  </si>
+  <si>
+    <t>CYANARO 1% EYE DROPS 2.5 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DAKTACORT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>DAPABLIX 10MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>DIACALDERM TOPICAL OINT. 20 GM</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>DIASTOP SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>DIOSED-C 20 TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>EUTHYROX 50MCG 50 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>FLEBOTON 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FORTUM 1 GM VIAL.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>212.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>GLYCERIN SOAP</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>HEPATICUM 10MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY NUTRADEFENSE PLUS 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>329.00</t>
+  </si>
+  <si>
+    <t>329.0000</t>
+  </si>
+  <si>
+    <t>ITRAPEX 100MG 4 CAPS.</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERCAVA  SACHET</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>450.0000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>NACTALIA 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </